--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF575644-0715-4DEE-8E6F-B17CF015AA7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{887E3101-7B79-4667-A02E-488DBEDFADC4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>air</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,16 @@
   </si>
   <si>
     <t>cont-&gt;blowing</t>
+  </si>
+  <si>
+    <t>UnitTeleportOut_mc</t>
+  </si>
+  <si>
+    <t>unit27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitTeleportIn_mc</t>
   </si>
 </sst>
 </file>
@@ -355,12 +365,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A9:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -371,13 +400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2F131-2AB5-4F7D-B09E-C54B42509058}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{887E3101-7B79-4667-A02E-488DBEDFADC4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD612B40-44C3-4300-A412-7269492AD8A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
     <sheet name="cast" sheetId="2" r:id="rId2"/>
+    <sheet name="tower" sheetId="4" r:id="rId3"/>
+    <sheet name="bullet sphere" sheetId="3" r:id="rId4"/>
+    <sheet name="world" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,33 +24,511 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>air</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
+  <si>
+    <t>UnitTeleportOut_mc</t>
+  </si>
+  <si>
+    <t>UnitTeleportIn_mc</t>
+  </si>
+  <si>
+    <t>BlockRadius_mc</t>
+  </si>
+  <si>
+    <t>unit_22.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_27.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm/aniName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadUnitFire_mc</t>
+  </si>
+  <si>
+    <t>unit_23.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadUnitStone_mc</t>
+  </si>
+  <si>
+    <t>unit_24.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_25.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadUnitIce_mc</t>
+  </si>
+  <si>
+    <t>RoadUnitLevin_mc</t>
+  </si>
+  <si>
+    <t>unit_26.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimUpgrade_mc</t>
+  </si>
+  <si>
+    <t>unit_34.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_mc.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_x.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levindeath</t>
+  </si>
+  <si>
+    <t>stonedeath</t>
+  </si>
+  <si>
+    <t>icedeath</t>
+  </si>
+  <si>
+    <t>buffhp</t>
+  </si>
+  <si>
+    <t>airshock</t>
+  </si>
+  <si>
+    <t>buffspeed</t>
+  </si>
+  <si>
+    <t>dust1</t>
+  </si>
+  <si>
+    <t>dust2</t>
+  </si>
+  <si>
+    <t>dust3</t>
+  </si>
+  <si>
+    <t>dust4</t>
+  </si>
+  <si>
+    <t>fireattack</t>
+  </si>
+  <si>
+    <t>levinattack</t>
+  </si>
+  <si>
+    <t>iceattack</t>
+  </si>
+  <si>
+    <t>icefreeze</t>
+  </si>
+  <si>
+    <t>fireeffect</t>
+  </si>
+  <si>
+    <t>iceeffect</t>
+  </si>
+  <si>
+    <t>selectunit.png</t>
+  </si>
+  <si>
+    <t>unit_28.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveHealth1</t>
+  </si>
+  <si>
+    <t>giveHealth2</t>
+  </si>
+  <si>
+    <t>giveHealth3</t>
+  </si>
+  <si>
+    <t>dustAnima</t>
+  </si>
+  <si>
+    <t>unit_29.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_30.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitCase</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>maskCont</t>
+  </si>
+  <si>
+    <t>unit_18.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_19.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>MoveIceman_mc</t>
+  </si>
+  <si>
+    <t>Air.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceRoad_mc</t>
+  </si>
+  <si>
+    <t>BlowIce_mc</t>
+  </si>
+  <si>
+    <t>Iceman_mc</t>
+  </si>
+  <si>
+    <t>Iceman.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem3_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem1_mc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Air_mc</t>
-  </si>
-  <si>
-    <t>cont-&gt;blowing</t>
-  </si>
-  <si>
-    <t>UnitTeleportOut_mc</t>
-  </si>
-  <si>
-    <t>unit27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitTeleportIn_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast/Air_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveAir_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast/MoveAir_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subarm/ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contSlot/dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contBlowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveGolem_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit20_frontDeath_mc</t>
+  </si>
+  <si>
+    <t>unit_20.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit20_backDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_21.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit21_frontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit21_backDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit23HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit23VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit24HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit24VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit25HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit25VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit26HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit26VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit34Death_mc</t>
+  </si>
+  <si>
+    <t>Golem1HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem2HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem3HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem1VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem2VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem3VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>IcemanHorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>IcemanVerticalDeath_mc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一是导出二个子对象组文件 ,二是导出一个对象组文件, 里面包含二个arm, 暂时代码按一个db导出, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出一个DB, 包含四个arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出一个DB, 包含四个arm ,contBlowing需要从cont里面提到外面来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletIceTower_mc</t>
+  </si>
+  <si>
+    <t>BulletStoneTower_mc</t>
+  </si>
+  <si>
+    <t>BulletLevinTower_mc</t>
+  </si>
+  <si>
+    <t>BuildTowerSmoke_mc</t>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSphere_mc</t>
+  </si>
+  <si>
+    <t>GetSphere.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>sphere1</t>
+  </si>
+  <si>
+    <t>sphere2</t>
+  </si>
+  <si>
+    <t>sphere3</t>
+  </si>
+  <si>
+    <t>sphere4</t>
+  </si>
+  <si>
+    <t>Arrow_mc</t>
+  </si>
+  <si>
+    <t>GetAll_mc</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>BulletFireTower_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower5_1_mc</t>
+  </si>
+  <si>
+    <t>BulletTower5_1Bang_mc</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower7_mc</t>
+  </si>
+  <si>
+    <t>ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>Cont2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower61_mc</t>
+  </si>
+  <si>
+    <t>BulletTower6_2_mc</t>
+  </si>
+  <si>
+    <t>BulletTower6_1_mc</t>
+  </si>
+  <si>
+    <t>BulletTower51_2_mc</t>
+  </si>
+  <si>
+    <t>BulletTower51_1_mc</t>
+  </si>
+  <si>
+    <t>Cont1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smokeCont1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smokeCont2</t>
+  </si>
+  <si>
+    <t>BulletTower81_mc</t>
+  </si>
+  <si>
+    <t>BulletTower8_2_mc</t>
+  </si>
+  <si>
+    <t>BulletTower8_1_mc</t>
+  </si>
+  <si>
+    <t>BulletTower7_smoke_mc</t>
+  </si>
+  <si>
+    <t>UnitShadow_mc</t>
+  </si>
+  <si>
+    <t>Bullet_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +543,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -79,12 +581,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,29 +980,738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:B10"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -398,27 +1722,1533 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2F131-2AB5-4F7D-B09E-C54B42509058}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>B3</f>
+        <v>dust1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>B4</f>
+        <v>dust2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>B6</f>
+        <v>dust1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>B7</f>
+        <v>dust2</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>B9</f>
+        <v>dust1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>B10</f>
+        <v>dust2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="str">
+        <f>B11</f>
+        <v>MoveGolem_mc</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="str">
+        <f>B12</f>
+        <v>Golem1HorisontDeath_mc</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
+        <f t="shared" ref="E13:E17" si="0">B13</f>
+        <v>Golem2HorisontDeath_mc</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Golem3HorisontDeath_mc</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Golem1VerticalDeath_mc</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Golem2VerticalDeath_mc</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Golem3VerticalDeath_mc</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="str">
+        <f>B18</f>
+        <v>Iceman_mc</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="str">
+        <f>B19</f>
+        <v>BlowIce_mc</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="str">
+        <f>B20</f>
+        <v>IceRoad_mc</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="str">
+        <f>B21</f>
+        <v>MoveIceman_mc</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="str">
+        <f t="shared" ref="E22:E23" si="1">B22</f>
+        <v>IcemanHorisontDeath_mc</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IcemanVerticalDeath_mc</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f t="shared" ref="E24:E33" si="2">B24</f>
+        <v>Air_mc</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>cont</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>contBlowing</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dust1</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dust2</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MoveAir_mc</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>down</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>left</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>right</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>up</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="H24:H28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1923BD-7A8E-415C-AAAA-3A9E1AA7620E}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <f>B2</f>
+        <v>BuildTowerSmoke_mc</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA63EA2-B2CC-4050-B8E3-63A93E196503}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <f>B2</f>
+        <v>BulletFireTower_mc</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="str">
+        <f>B3</f>
+        <v>BulletIceTower_mc</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="str">
+        <f>B4</f>
+        <v>BulletStoneTower_mc</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="str">
+        <f>B5</f>
+        <v>BulletLevinTower_mc</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ref="E6:E14" si="0">B6</f>
+        <v>BulletTower5_1_mc</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BulletTower5_1Bang_mc</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BulletTower51_1_mc</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BulletTower51_2_mc</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BulletTower6_1_mc</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BulletTower6_2_mc</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BulletTower61_mc</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ball</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="str">
+        <f t="shared" ref="E18:E22" si="1">B18</f>
+        <v>BulletTower7_smoke_mc</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BulletTower8_1_mc</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BulletTower8_2_mc</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BulletTower81_mc</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>UnitShadow_mc</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E73D0-D4B9-457D-8D8A-52FD778FEEDA}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <f>B2</f>
+        <v>GetSphere_mc</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E11" si="0">B3</f>
+        <v>cont</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>sphere1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>sphere2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>sphere3</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>sphere4</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Arrow_mc</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GetAll_mc</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cross</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AD612B40-44C3-4300-A412-7269492AD8A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84E19DC4-0E82-4279-B1C3-F9E4BCCBE9BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="196">
   <si>
     <t>UnitTeleportOut_mc</t>
   </si>
@@ -521,6 +521,167 @@
   </si>
   <si>
     <t>Bullet_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTowerMenu.h</t>
+  </si>
+  <si>
+    <t>BuildTowerMenu_mc</t>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenuHint_mc</t>
+  </si>
+  <si>
+    <t>buildTowerMenuCase</t>
+  </si>
+  <si>
+    <t>costTXT</t>
+  </si>
+  <si>
+    <t>nameTXT</t>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>TowerMenu.h</t>
+  </si>
+  <si>
+    <t>TowerMenu_mc</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont1</t>
+  </si>
+  <si>
+    <t>sphere1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">btnGetAll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnUpgradeMenu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cont1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cont2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastBuyUltraCont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot4 </t>
+  </si>
+  <si>
+    <t>sphereAnima</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>levin</t>
+  </si>
+  <si>
+    <t>TowerRadius_mc</t>
+  </si>
+  <si>
+    <t>btnFastBuyUltra</t>
+  </si>
+  <si>
+    <t>fastBuyUltraCase</t>
+  </si>
+  <si>
+    <t>NewEnemy_mc</t>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newEnemyCase</t>
+  </si>
+  <si>
+    <t>NewElement_mc</t>
+  </si>
+  <si>
+    <t>newElementCase</t>
+  </si>
+  <si>
+    <t>Unit35Death_mc</t>
+  </si>
+  <si>
+    <t>Unit36Death_mc</t>
+  </si>
+  <si>
+    <t>Unit37Death_mc</t>
+  </si>
+  <si>
+    <t>Unit38Death_mc</t>
+  </si>
+  <si>
+    <t>unit.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallDelay.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -699,6 +860,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,738 +1153,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1722,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2F131-2AB5-4F7D-B09E-C54B42509058}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1733,12 +2292,13 @@
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1749,22 +2309,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1774,15 +2337,18 @@
       <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -1791,17 +2357,20 @@
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="F3" s="1" t="str">
         <f>B3</f>
         <v>dust1</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
@@ -1810,17 +2379,20 @@
         <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="F4" s="1" t="str">
         <f>B4</f>
         <v>dust2</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>68</v>
@@ -1828,13 +2400,16 @@
       <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>31</v>
@@ -1843,17 +2418,20 @@
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="F6" s="1" t="str">
         <f>B6</f>
         <v>dust1</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>32</v>
@@ -1862,17 +2440,20 @@
         <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="F7" s="1" t="str">
         <f>B7</f>
         <v>dust2</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -1880,13 +2461,16 @@
       <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -1895,17 +2479,20 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="F9" s="1" t="str">
         <f>B9</f>
         <v>dust1</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>32</v>
@@ -1914,17 +2501,20 @@
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="F10" s="1" t="str">
         <f>B10</f>
         <v>dust2</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>80</v>
@@ -1932,16 +2522,19 @@
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="str">
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
         <f>B11</f>
         <v>MoveGolem_mc</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>96</v>
@@ -1949,16 +2542,19 @@
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="str">
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="str">
         <f>B12</f>
         <v>Golem1HorisontDeath_mc</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>97</v>
@@ -1966,16 +2562,19 @@
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13:E17" si="0">B13</f>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="str">
+        <f t="shared" ref="F13:F17" si="0">B13</f>
         <v>Golem2HorisontDeath_mc</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>98</v>
@@ -1983,16 +2582,19 @@
       <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="str">
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Golem3HorisontDeath_mc</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>99</v>
@@ -2000,16 +2602,19 @@
       <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="str">
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Golem1VerticalDeath_mc</v>
       </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>100</v>
@@ -2017,16 +2622,19 @@
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="str">
+      <c r="D16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Golem2VerticalDeath_mc</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
@@ -2034,16 +2642,19 @@
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="str">
+      <c r="D17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Golem3VerticalDeath_mc</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -2053,16 +2664,19 @@
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="str">
+      <c r="D18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="str">
         <f>B18</f>
         <v>Iceman_mc</v>
       </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -2070,16 +2684,19 @@
       <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="str">
+      <c r="D19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="str">
         <f>B19</f>
         <v>BlowIce_mc</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>64</v>
@@ -2087,16 +2704,19 @@
       <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="str">
+      <c r="D20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="str">
         <f>B20</f>
         <v>IceRoad_mc</v>
       </c>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>60</v>
@@ -2104,16 +2724,19 @@
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="str">
+      <c r="D21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="str">
         <f>B21</f>
         <v>MoveIceman_mc</v>
       </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>102</v>
@@ -2121,16 +2744,19 @@
       <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="str">
-        <f t="shared" ref="E22:E23" si="1">B22</f>
+      <c r="D22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="str">
+        <f t="shared" ref="F22:F23" si="1">B22</f>
         <v>IcemanHorisontDeath_mc</v>
       </c>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>103</v>
@@ -2138,16 +2764,19 @@
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="str">
+      <c r="D23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>IcemanVerticalDeath_mc</v>
       </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2157,18 +2786,21 @@
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24:E33" si="2">B24</f>
+      <c r="D24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="str">
+        <f t="shared" ref="F24:F33" si="2">B24</f>
         <v>Air_mc</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
         <v>22</v>
@@ -2177,17 +2809,20 @@
         <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="F25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>cont</v>
       </c>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
         <v>77</v>
@@ -2196,17 +2831,20 @@
         <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>contBlowing</v>
       </c>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
         <v>31</v>
@@ -2215,17 +2853,20 @@
         <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="F27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>dust1</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
         <v>32</v>
@@ -2234,17 +2875,20 @@
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="F28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>dust2</v>
       </c>
-      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>73</v>
@@ -2252,18 +2896,21 @@
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="str">
+      <c r="D29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>MoveAir_mc</v>
       </c>
-      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
         <v>56</v>
@@ -2272,17 +2919,20 @@
         <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="F30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>down</v>
       </c>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>57</v>
@@ -2291,17 +2941,20 @@
         <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="F31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
         <v>58</v>
@@ -2310,17 +2963,20 @@
         <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>59</v>
@@ -2329,21 +2985,24 @@
         <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="1" t="str">
+      <c r="F33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>up</v>
       </c>
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I24:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2352,22 +3011,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1923BD-7A8E-415C-AAAA-3A9E1AA7620E}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2378,22 +3039,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -2403,158 +3067,762 @@
       <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="str">
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="str">
         <f>B2</f>
         <v>BuildTowerSmoke_mc</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F4" si="0">B3</f>
+        <v>BuildTowerMenu_mc</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2562,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA63EA2-B2CC-4050-B8E3-63A93E196503}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84E19DC4-0E82-4279-B1C3-F9E4BCCBE9BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66EFE209-A1A0-47E6-A2CC-DC5FE8C8A5B9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -384,10 +384,6 @@
     <t>IcemanVerticalDeath_mc</t>
   </si>
   <si>
-    <t xml:space="preserve">一是导出二个子对象组文件 ,二是导出一个对象组文件, 里面包含二个arm, 暂时代码按一个db导出, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出一个DB, 包含四个arm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,29 +655,34 @@
     <t>newEnemyCase</t>
   </si>
   <si>
+    <t>newElementCase</t>
+  </si>
+  <si>
+    <t>Unit35Death_mc</t>
+  </si>
+  <si>
+    <t>Unit36Death_mc</t>
+  </si>
+  <si>
+    <t>Unit37Death_mc</t>
+  </si>
+  <si>
+    <t>Unit38Death_mc</t>
+  </si>
+  <si>
+    <t>unit.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallDelay.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NewElement_mc</t>
-  </si>
-  <si>
-    <t>newElementCase</t>
-  </si>
-  <si>
-    <t>Unit35Death_mc</t>
-  </si>
-  <si>
-    <t>Unit36Death_mc</t>
-  </si>
-  <si>
-    <t>Unit37Death_mc</t>
-  </si>
-  <si>
-    <t>Unit38Death_mc</t>
-  </si>
-  <si>
-    <t>unit.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallDelay.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一是导出三个子对象组文件 ,二是导出一个对象组文件, 里面包含三个arm, 暂时代码按一个db导出, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -842,6 +849,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -861,18 +877,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1155,32 +1164,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>78</v>
@@ -1198,7 +1207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1219,7 +1228,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -1228,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -1238,7 +1247,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1247,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1257,7 +1266,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -1266,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -1276,7 +1285,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1285,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -1295,7 +1304,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -1304,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -1314,7 +1323,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>31</v>
@@ -1323,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1335,7 +1344,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -1344,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1356,7 +1365,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -1365,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1377,7 +1386,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -1386,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -1398,7 +1407,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -1407,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -1417,7 +1426,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -1426,7 +1435,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -1436,7 +1445,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1445,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -1455,7 +1464,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -1464,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -1474,7 +1483,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>39</v>
@@ -1483,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
@@ -1493,7 +1502,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -1502,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -1512,7 +1521,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
@@ -1521,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -1531,7 +1540,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -1540,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -1550,7 +1559,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -1559,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -1569,7 +1578,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
@@ -1596,14 +1605,14 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1613,7 +1622,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1634,7 +1643,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
@@ -1655,7 +1664,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>82</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
@@ -1676,7 +1685,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>83</v>
@@ -1685,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1695,7 +1704,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1716,7 +1725,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>86</v>
@@ -1725,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1735,7 +1744,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1756,7 +1765,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1777,7 +1786,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>87</v>
@@ -1786,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
@@ -1796,7 +1805,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>88</v>
@@ -1805,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
@@ -1815,7 +1824,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
@@ -1836,7 +1845,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>89</v>
@@ -1845,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
@@ -1855,7 +1864,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>90</v>
@@ -1864,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -1874,7 +1883,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1895,7 +1904,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>51</v>
@@ -1904,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
@@ -1914,7 +1923,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>91</v>
@@ -1923,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
@@ -1933,7 +1942,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1942,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
@@ -1952,7 +1961,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
@@ -1973,7 +1982,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1982,7 +1991,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
@@ -1992,7 +2001,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>94</v>
@@ -2001,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -2011,7 +2020,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -2032,7 +2041,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -2041,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -2051,7 +2060,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -2072,7 +2081,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -2081,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -2091,7 +2100,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -2100,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -2110,7 +2119,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -2131,7 +2140,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -2152,7 +2161,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -2173,7 +2182,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>95</v>
@@ -2182,7 +2191,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -2192,85 +2201,85 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+    <row r="55" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2283,22 +2292,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2F131-2AB5-4F7D-B09E-C54B42509058}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>78</v>
@@ -2327,7 +2336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -2338,17 +2347,17 @@
         <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -2357,7 +2366,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>70</v>
@@ -2368,9 +2377,9 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
@@ -2379,7 +2388,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>70</v>
@@ -2390,9 +2399,9 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>68</v>
@@ -2401,15 +2410,15 @@
         <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>31</v>
@@ -2418,7 +2427,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>68</v>
@@ -2429,9 +2438,9 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>32</v>
@@ -2440,7 +2449,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>68</v>
@@ -2451,9 +2460,9 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -2462,15 +2471,15 @@
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -2479,7 +2488,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
@@ -2490,9 +2499,9 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>32</v>
@@ -2501,7 +2510,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>69</v>
@@ -2512,9 +2521,9 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>80</v>
@@ -2523,7 +2532,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="str">
@@ -2534,7 +2543,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>96</v>
@@ -2543,7 +2552,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="str">
@@ -2554,7 +2563,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>97</v>
@@ -2563,7 +2572,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="str">
@@ -2574,7 +2583,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>98</v>
@@ -2583,7 +2592,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="str">
@@ -2594,7 +2603,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>99</v>
@@ -2603,7 +2612,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="str">
@@ -2614,7 +2623,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>100</v>
@@ -2623,7 +2632,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="str">
@@ -2634,7 +2643,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
@@ -2643,7 +2652,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="str">
@@ -2654,7 +2663,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -2665,7 +2674,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="str">
@@ -2676,7 +2685,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -2685,7 +2694,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="str">
@@ -2696,7 +2705,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>64</v>
@@ -2705,7 +2714,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="str">
@@ -2716,7 +2725,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>60</v>
@@ -2725,7 +2734,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="str">
@@ -2736,7 +2745,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>102</v>
@@ -2745,7 +2754,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="str">
@@ -2756,7 +2765,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>103</v>
@@ -2765,7 +2774,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="str">
@@ -2776,7 +2785,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="str">
@@ -2796,11 +2805,11 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
         <v>22</v>
@@ -2809,7 +2818,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>71</v>
@@ -2820,9 +2829,9 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
         <v>77</v>
@@ -2831,7 +2840,7 @@
         <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>71</v>
@@ -2842,9 +2851,9 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
         <v>31</v>
@@ -2853,7 +2862,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>71</v>
@@ -2864,9 +2873,9 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
         <v>32</v>
@@ -2875,7 +2884,7 @@
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>71</v>
@@ -2886,9 +2895,9 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>73</v>
@@ -2897,7 +2906,7 @@
         <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="str">
@@ -2906,11 +2915,11 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
         <v>56</v>
@@ -2919,7 +2928,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>73</v>
@@ -2930,9 +2939,9 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>57</v>
@@ -2941,7 +2950,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>73</v>
@@ -2952,9 +2961,9 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
         <v>58</v>
@@ -2963,7 +2972,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>73</v>
@@ -2974,9 +2983,9 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>59</v>
@@ -2985,7 +2994,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>73</v>
@@ -2996,7 +3005,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3017,18 +3026,18 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>78</v>
@@ -3057,18 +3066,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="str">
@@ -3079,18 +3088,18 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="str">
@@ -3101,16 +3110,16 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="str">
@@ -3121,16 +3130,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3138,16 +3147,16 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3155,18 +3164,18 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3174,16 +3183,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3191,14 +3200,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3206,46 +3215,46 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3253,16 +3262,16 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3270,14 +3279,14 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3285,14 +3294,14 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3300,14 +3309,14 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3315,14 +3324,14 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3330,14 +3339,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3345,14 +3354,14 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3360,14 +3369,14 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3375,14 +3384,14 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3390,14 +3399,14 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3405,14 +3414,14 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3420,14 +3429,14 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3435,14 +3444,14 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3450,14 +3459,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3465,10 +3474,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3478,14 +3487,14 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="13" t="s">
-        <v>151</v>
+      <c r="B28" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3493,10 +3502,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
-        <v>184</v>
+      <c r="B29" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3506,14 +3515,14 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3521,14 +3530,14 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3536,14 +3545,14 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="13" t="s">
-        <v>178</v>
+      <c r="B32" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3551,10 +3560,10 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="13" t="s">
-        <v>179</v>
+      <c r="B33" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3564,10 +3573,10 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="13" t="s">
-        <v>180</v>
+      <c r="B34" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3577,10 +3586,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="13" t="s">
-        <v>181</v>
+      <c r="B35" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3590,14 +3599,14 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3605,14 +3614,14 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="13" t="s">
-        <v>178</v>
+      <c r="B37" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3620,10 +3629,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="13" t="s">
-        <v>179</v>
+      <c r="B38" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3633,10 +3642,10 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="13" t="s">
-        <v>180</v>
+      <c r="B39" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3646,10 +3655,10 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="13" t="s">
-        <v>181</v>
+      <c r="B40" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3659,14 +3668,14 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3674,14 +3683,14 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="13" t="s">
-        <v>178</v>
+      <c r="B42" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3689,10 +3698,10 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="13" t="s">
-        <v>179</v>
+      <c r="B43" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3702,10 +3711,10 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="13" t="s">
-        <v>180</v>
+      <c r="B44" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3715,10 +3724,10 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="13" t="s">
-        <v>181</v>
+      <c r="B45" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3728,14 +3737,14 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3743,14 +3752,14 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="13" t="s">
-        <v>178</v>
+      <c r="B47" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3758,10 +3767,10 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="13" t="s">
-        <v>179</v>
+      <c r="B48" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3771,10 +3780,10 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="13" t="s">
-        <v>180</v>
+      <c r="B49" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3784,10 +3793,10 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="13" t="s">
-        <v>181</v>
+      <c r="B50" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3797,16 +3806,16 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3814,9 +3823,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3834,18 +3843,18 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3871,15 +3880,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="str">
@@ -3890,13 +3899,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="str">
@@ -3907,13 +3916,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="str">
@@ -3924,13 +3933,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
@@ -3941,15 +3950,15 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
@@ -3960,13 +3969,13 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="str">
@@ -3977,13 +3986,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="str">
@@ -3994,13 +4003,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="str">
@@ -4011,13 +4020,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="str">
@@ -4028,13 +4037,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="str">
@@ -4045,13 +4054,13 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="str">
@@ -4062,13 +4071,13 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4076,16 +4085,16 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4095,58 +4104,58 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="str">
@@ -4157,13 +4166,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="str">
@@ -4174,13 +4183,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="str">
@@ -4191,13 +4200,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="str">
@@ -4208,15 +4217,15 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="str">
@@ -4242,15 +4251,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -4276,12 +4285,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4293,10 +4302,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4308,10 +4317,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4323,10 +4332,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4338,10 +4347,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4353,10 +4362,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4368,10 +4377,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4383,10 +4392,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4398,10 +4407,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4413,10 +4422,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4428,7 +4437,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4438,7 +4447,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4448,7 +4457,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4458,7 +4467,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4468,7 +4477,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4478,7 +4487,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4488,7 +4497,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4498,7 +4507,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4508,7 +4517,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66EFE209-A1A0-47E6-A2CC-DC5FE8C8A5B9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC68AE85-0A1D-45AE-A845-3EFFA2A6DB22}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="196">
   <si>
     <t>UnitTeleportOut_mc</t>
   </si>
@@ -251,438 +251,443 @@
     <t>BlowIce_mc</t>
   </si>
   <si>
+    <t>Iceman.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem3_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast/Air_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveAir_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast/MoveAir_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subarm/ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contSlot/dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contBlowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveGolem_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit20_frontDeath_mc</t>
+  </si>
+  <si>
+    <t>unit_20.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit20_backDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_21.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit21_frontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit21_backDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit23HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit23VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit24HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit24VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit25HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit25VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit26HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit26VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Unit34Death_mc</t>
+  </si>
+  <si>
+    <t>Golem1HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem2HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem3HorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem1VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem2VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Golem3VerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>IcemanHorisontDeath_mc</t>
+  </si>
+  <si>
+    <t>IcemanVerticalDeath_mc</t>
+  </si>
+  <si>
+    <t>Tower.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletIceTower_mc</t>
+  </si>
+  <si>
+    <t>BulletStoneTower_mc</t>
+  </si>
+  <si>
+    <t>BulletLevinTower_mc</t>
+  </si>
+  <si>
+    <t>BuildTowerSmoke_mc</t>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSphere_mc</t>
+  </si>
+  <si>
+    <t>GetSphere.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>sphere1</t>
+  </si>
+  <si>
+    <t>sphere2</t>
+  </si>
+  <si>
+    <t>sphere3</t>
+  </si>
+  <si>
+    <t>sphere4</t>
+  </si>
+  <si>
+    <t>Arrow_mc</t>
+  </si>
+  <si>
+    <t>GetAll_mc</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>BulletFireTower_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower5_1_mc</t>
+  </si>
+  <si>
+    <t>BulletTower5_1Bang_mc</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower7_mc</t>
+  </si>
+  <si>
+    <t>ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>Cont2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower61_mc</t>
+  </si>
+  <si>
+    <t>BulletTower6_2_mc</t>
+  </si>
+  <si>
+    <t>BulletTower6_1_mc</t>
+  </si>
+  <si>
+    <t>BulletTower51_2_mc</t>
+  </si>
+  <si>
+    <t>BulletTower51_1_mc</t>
+  </si>
+  <si>
+    <t>Cont1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smokeCont1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smokeCont2</t>
+  </si>
+  <si>
+    <t>BulletTower81_mc</t>
+  </si>
+  <si>
+    <t>BulletTower8_2_mc</t>
+  </si>
+  <si>
+    <t>BulletTower8_1_mc</t>
+  </si>
+  <si>
+    <t>BulletTower7_smoke_mc</t>
+  </si>
+  <si>
+    <t>UnitShadow_mc</t>
+  </si>
+  <si>
+    <t>Bullet_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTowerMenu.h</t>
+  </si>
+  <si>
+    <t>BuildTowerMenu_mc</t>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenuHint_mc</t>
+  </si>
+  <si>
+    <t>buildTowerMenuCase</t>
+  </si>
+  <si>
+    <t>costTXT</t>
+  </si>
+  <si>
+    <t>nameTXT</t>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>TowerMenu.h</t>
+  </si>
+  <si>
+    <t>TowerMenu_mc</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont1</t>
+  </si>
+  <si>
+    <t>sphere1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">btnGetAll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnTowerUpgr4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">btnUpgradeMenu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cont1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cont2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastBuyUltraCont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphereSlot4 </t>
+  </si>
+  <si>
+    <t>sphereAnima</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>levin</t>
+  </si>
+  <si>
+    <t>TowerRadius_mc</t>
+  </si>
+  <si>
+    <t>btnFastBuyUltra</t>
+  </si>
+  <si>
+    <t>fastBuyUltraCase</t>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newEnemyCase</t>
+  </si>
+  <si>
+    <t>newElementCase</t>
+  </si>
+  <si>
+    <t>Unit35Death_mc</t>
+  </si>
+  <si>
+    <t>Unit36Death_mc</t>
+  </si>
+  <si>
+    <t>Unit37Death_mc</t>
+  </si>
+  <si>
+    <t>Unit38Death_mc</t>
+  </si>
+  <si>
+    <t>unit.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallDelay.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewElement_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewEnemy_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Iceman_mc</t>
-  </si>
-  <si>
-    <t>Iceman.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golem2_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golem3_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golem1_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Air_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cast/Air_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveAir_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cast/MoveAir_m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subarm/ani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contSlot/dir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contBlowing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveGolem_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit20_frontDeath_mc</t>
-  </si>
-  <si>
-    <t>unit_20.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit20_backDeath_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit_21.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit21_frontDeath_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit21_backDeath_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit23HorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit23VerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit24HorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit24VerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit25HorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit25VerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit26HorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit26VerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>Unit34Death_mc</t>
-  </si>
-  <si>
-    <t>Golem1HorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>Golem2HorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>Golem3HorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>Golem1VerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>Golem2VerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>Golem3VerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>IcemanHorisontDeath_mc</t>
-  </si>
-  <si>
-    <t>IcemanVerticalDeath_mc</t>
-  </si>
-  <si>
-    <t>导出一个DB, 包含四个arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出一个DB, 包含四个arm ,contBlowing需要从cont里面提到外面来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletIceTower_mc</t>
-  </si>
-  <si>
-    <t>BulletStoneTower_mc</t>
-  </si>
-  <si>
-    <t>BulletLevinTower_mc</t>
-  </si>
-  <si>
-    <t>BuildTowerSmoke_mc</t>
-  </si>
-  <si>
-    <t>tower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetSphere_mc</t>
-  </si>
-  <si>
-    <t>GetSphere.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cont</t>
-  </si>
-  <si>
-    <t>sphere1</t>
-  </si>
-  <si>
-    <t>sphere2</t>
-  </si>
-  <si>
-    <t>sphere3</t>
-  </si>
-  <si>
-    <t>sphere4</t>
-  </si>
-  <si>
-    <t>Arrow_mc</t>
-  </si>
-  <si>
-    <t>GetAll_mc</t>
-  </si>
-  <si>
-    <t>cross</t>
-  </si>
-  <si>
-    <t>BulletFireTower_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sphere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletTower5_1_mc</t>
-  </si>
-  <si>
-    <t>BulletTower5_1Bang_mc</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletTower7_mc</t>
-  </si>
-  <si>
-    <t>ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smoke</t>
-  </si>
-  <si>
-    <t>Cont2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletTower61_mc</t>
-  </si>
-  <si>
-    <t>BulletTower6_2_mc</t>
-  </si>
-  <si>
-    <t>BulletTower6_1_mc</t>
-  </si>
-  <si>
-    <t>BulletTower51_2_mc</t>
-  </si>
-  <si>
-    <t>BulletTower51_1_mc</t>
-  </si>
-  <si>
-    <t>Cont1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smokeCont1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smokeCont2</t>
-  </si>
-  <si>
-    <t>BulletTower81_mc</t>
-  </si>
-  <si>
-    <t>BulletTower8_2_mc</t>
-  </si>
-  <si>
-    <t>BulletTower8_1_mc</t>
-  </si>
-  <si>
-    <t>BulletTower7_smoke_mc</t>
-  </si>
-  <si>
-    <t>UnitShadow_mc</t>
-  </si>
-  <si>
-    <t>Bullet_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildTowerMenu.h</t>
-  </si>
-  <si>
-    <t>BuildTowerMenu_mc</t>
-  </si>
-  <si>
-    <t>cont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerMenuHint_mc</t>
-  </si>
-  <si>
-    <t>buildTowerMenuCase</t>
-  </si>
-  <si>
-    <t>costTXT</t>
-  </si>
-  <si>
-    <t>nameTXT</t>
-  </si>
-  <si>
-    <t>TextField</t>
-  </si>
-  <si>
-    <t>TowerMenu.h</t>
-  </si>
-  <si>
-    <t>TowerMenu_mc</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cont1</t>
-  </si>
-  <si>
-    <t>sphere1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sphere2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">btnGetAll </t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnTowerUpgr1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnTowerUpgr2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnTowerUpgr3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnTowerUpgr4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">btnUpgradeMenu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cont1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cont2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastBuyUltraCont </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sphereSlot1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sphereSlot2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sphereSlot3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sphereSlot4 </t>
-  </si>
-  <si>
-    <t>sphereAnima</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>levin</t>
-  </si>
-  <si>
-    <t>TowerRadius_mc</t>
-  </si>
-  <si>
-    <t>btnFastBuyUltra</t>
-  </si>
-  <si>
-    <t>fastBuyUltraCase</t>
-  </si>
-  <si>
-    <t>NewEnemy_mc</t>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newEnemyCase</t>
-  </si>
-  <si>
-    <t>newElementCase</t>
-  </si>
-  <si>
-    <t>Unit35Death_mc</t>
-  </si>
-  <si>
-    <t>Unit36Death_mc</t>
-  </si>
-  <si>
-    <t>Unit37Death_mc</t>
-  </si>
-  <si>
-    <t>Unit38Death_mc</t>
-  </si>
-  <si>
-    <t>unit.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallDelay.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewElement_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">一是导出三个子对象组文件 ,二是导出一个对象组文件, 里面包含三个arm, 暂时代码按一个db导出, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出一个DB, 包含五个arm
+因原素材中updown复用
+leftright复用, 导出为三个arm
+主arm中去掉up down left right 骨头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一是导出三个子对象组文件 ,二是导出一个对象组文件, 里面包含三个arm, 暂时代码按一个db导出, 已测试可行, 主arm中去掉dust1 dust2骨头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出一个DB, 包含9个arm ,因每一帧是子动画, 子动画下多层,又有子动画,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,6 +864,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -877,11 +887,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1164,35 +1169,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -1201,13 +1206,13 @@
         <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1228,7 +1233,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -1237,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -1247,7 +1252,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1256,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1266,7 +1271,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -1275,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -1285,7 +1290,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1294,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -1304,7 +1309,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -1313,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -1323,7 +1328,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>31</v>
@@ -1332,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1344,7 +1349,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -1353,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1365,7 +1370,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -1374,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1386,7 +1391,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -1395,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -1407,7 +1412,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -1416,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -1426,7 +1431,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -1435,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -1445,7 +1450,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1454,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -1464,7 +1469,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -1473,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -1483,7 +1488,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>39</v>
@@ -1492,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
@@ -1502,7 +1507,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -1511,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -1521,7 +1526,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
@@ -1530,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -1540,7 +1545,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -1549,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -1559,7 +1564,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -1568,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -1578,7 +1583,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
@@ -1601,18 +1606,18 @@
         <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1622,7 +1627,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1633,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1643,7 +1648,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
@@ -1664,87 +1669,87 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1765,7 +1770,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
@@ -1786,45 +1791,45 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
@@ -1845,45 +1850,45 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
@@ -1904,7 +1909,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>51</v>
@@ -1913,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
@@ -1923,45 +1928,45 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -1972,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
@@ -1982,45 +1987,45 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2036,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -2041,7 +2046,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -2050,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
@@ -2060,7 +2065,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -2081,7 +2086,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -2090,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
@@ -2100,7 +2105,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -2109,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -2119,7 +2124,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -2140,7 +2145,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2151,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -2161,7 +2166,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -2182,104 +2187,104 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16" t="s">
+    <row r="53" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17" t="s">
+    <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2292,36 +2297,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2F131-2AB5-4F7D-B09E-C54B42509058}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="26.75" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -2330,34 +2335,36 @@
         <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -2366,10 +2373,10 @@
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>B3</f>
@@ -2377,9 +2384,9 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>32</v>
@@ -2388,10 +2395,10 @@
         <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>B4</f>
@@ -2399,26 +2406,28 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>31</v>
@@ -2427,10 +2436,10 @@
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>B6</f>
@@ -2438,9 +2447,9 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>32</v>
@@ -2449,10 +2458,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>B7</f>
@@ -2460,26 +2469,28 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -2488,10 +2499,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>B9</f>
@@ -2499,9 +2510,9 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>32</v>
@@ -2510,10 +2521,10 @@
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>B10</f>
@@ -2521,18 +2532,18 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="str">
@@ -2543,16 +2554,16 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="str">
@@ -2563,16 +2574,16 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="str">
@@ -2583,16 +2594,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="str">
@@ -2603,16 +2614,16 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="str">
@@ -2623,16 +2634,16 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="str">
@@ -2643,16 +2654,16 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="str">
@@ -2663,18 +2674,18 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="str">
@@ -2685,7 +2696,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -2694,7 +2705,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="str">
@@ -2705,7 +2716,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>64</v>
@@ -2714,7 +2725,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="str">
@@ -2725,7 +2736,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>60</v>
@@ -2734,7 +2745,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="str">
@@ -2745,16 +2756,16 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="str">
@@ -2765,16 +2776,16 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="str">
@@ -2785,18 +2796,18 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="str">
@@ -2805,23 +2816,23 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2829,21 +2840,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2851,21 +2862,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2873,21 +2884,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2895,18 +2906,18 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="str">
@@ -2915,23 +2926,23 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2939,21 +2950,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2961,21 +2972,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2983,21 +2994,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3005,7 +3016,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3015,6 +3026,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3026,32 +3038,32 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -3060,24 +3072,24 @@
         <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="str">
@@ -3088,18 +3100,18 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="str">
@@ -3110,16 +3122,16 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="str">
@@ -3130,16 +3142,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3147,16 +3159,16 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3164,18 +3176,18 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3183,16 +3195,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3200,14 +3212,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3215,14 +3227,14 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -3230,14 +3242,14 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -3245,16 +3257,16 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3262,16 +3274,16 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3279,14 +3291,14 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3294,14 +3306,14 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3309,14 +3321,14 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3324,14 +3336,14 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3339,14 +3351,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3354,14 +3366,14 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3369,14 +3381,14 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3384,14 +3396,14 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3399,14 +3411,14 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3414,14 +3426,14 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3429,14 +3441,14 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3444,14 +3456,14 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3459,14 +3471,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3474,10 +3486,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3487,14 +3499,14 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3502,10 +3514,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3515,14 +3527,14 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3530,14 +3542,14 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3545,14 +3557,14 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3560,10 +3572,10 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3573,10 +3585,10 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3586,10 +3598,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3599,14 +3611,14 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3614,14 +3626,14 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3629,10 +3641,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3642,10 +3654,10 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3655,10 +3667,10 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3668,14 +3680,14 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3683,14 +3695,14 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3698,10 +3710,10 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3711,10 +3723,10 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3724,10 +3736,10 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3737,14 +3749,14 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3752,14 +3764,14 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3767,10 +3779,10 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3780,10 +3792,10 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3793,10 +3805,10 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3806,16 +3818,16 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3823,9 +3835,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3843,29 +3855,29 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -3874,21 +3886,21 @@
         <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="str">
@@ -3899,13 +3911,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="str">
@@ -3916,13 +3928,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="str">
@@ -3933,13 +3945,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
@@ -3950,15 +3962,15 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
@@ -3969,13 +3981,13 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="str">
@@ -3986,13 +3998,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="str">
@@ -4003,13 +4015,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="str">
@@ -4020,13 +4032,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="str">
@@ -4037,13 +4049,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="str">
@@ -4054,13 +4066,13 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="str">
@@ -4071,13 +4083,13 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4085,16 +4097,16 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4104,58 +4116,58 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="str">
@@ -4166,13 +4178,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="str">
@@ -4183,13 +4195,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="str">
@@ -4200,13 +4212,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="str">
@@ -4217,15 +4229,15 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="str">
@@ -4251,26 +4263,26 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -4279,18 +4291,18 @@
         <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4302,10 +4314,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4317,10 +4329,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4332,10 +4344,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4347,10 +4359,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4362,10 +4374,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4377,10 +4389,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4392,10 +4404,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4407,10 +4419,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4422,10 +4434,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4437,7 +4449,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4447,7 +4459,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4457,7 +4469,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4467,7 +4479,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4477,7 +4489,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4487,7 +4499,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4497,7 +4509,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4507,7 +4519,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4517,7 +4529,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC68AE85-0A1D-45AE-A845-3EFFA2A6DB22}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{577186B1-5FA9-485B-A381-82A8EF02ED96}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="272">
   <si>
     <t>UnitTeleportOut_mc</t>
   </si>
@@ -230,9 +230,6 @@
     <t>up</t>
   </si>
   <si>
-    <t>MoveIceman_mc</t>
-  </si>
-  <si>
     <t>Air.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,18 +268,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cast/Air_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveAir_mc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cast/MoveAir_m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>subarm/ani</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,9 +346,6 @@
     <t>Unit34Death_mc</t>
   </si>
   <si>
-    <t>Golem1HorisontDeath_mc</t>
-  </si>
-  <si>
     <t>Golem2HorisontDeath_mc</t>
   </si>
   <si>
@@ -375,9 +361,6 @@
     <t>Golem3VerticalDeath_mc</t>
   </si>
   <si>
-    <t>IcemanHorisontDeath_mc</t>
-  </si>
-  <si>
     <t>IcemanVerticalDeath_mc</t>
   </si>
   <si>
@@ -512,19 +495,10 @@
     <t>BuildTowerMenu.h</t>
   </si>
   <si>
-    <t>BuildTowerMenu_mc</t>
-  </si>
-  <si>
     <t>cont</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TowerMenuHint_mc</t>
-  </si>
-  <si>
-    <t>buildTowerMenuCase</t>
-  </si>
-  <si>
     <t>costTXT</t>
   </si>
   <si>
@@ -532,9 +506,6 @@
   </si>
   <si>
     <t>TextField</t>
-  </si>
-  <si>
-    <t>TowerMenu.h</t>
   </si>
   <si>
     <t>TowerMenu_mc</t>
@@ -689,6 +660,299 @@
   <si>
     <t>导出一个DB, 包含9个arm ,因每一帧是子动画, 子动画下多层,又有子动画,</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem1HorisontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IcemanHorisontDeath_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveIceman_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast_1.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast_2.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTowerMenu_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildTowerMenuCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenuHint_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerMenu_mc.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimUpgrade_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltraTowerMenuHint.cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltraTowerMenu_mc</t>
+  </si>
+  <si>
+    <t>btnUpgradeMenu</t>
+  </si>
+  <si>
+    <t>fastBuyUltraCont</t>
+  </si>
+  <si>
+    <t>sellUltraTower</t>
+  </si>
+  <si>
+    <t>sphereSlot1</t>
+  </si>
+  <si>
+    <t>sphereSlot2</t>
+  </si>
+  <si>
+    <t>sphereAnima</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnUpgradeMenuCase</t>
+  </si>
+  <si>
+    <t>costTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicator1</t>
+  </si>
+  <si>
+    <t>indicator2</t>
+  </si>
+  <si>
+    <t>indicator3</t>
+  </si>
+  <si>
+    <t>indicator4</t>
+  </si>
+  <si>
+    <t>sellUltraTowerCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltraTowerMenuHint_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageTXT</t>
+  </si>
+  <si>
+    <t>noteTXT</t>
+  </si>
+  <si>
+    <t>Tower1.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower1_mc</t>
+  </si>
+  <si>
+    <t>blockTower</t>
+  </si>
+  <si>
+    <t>boneBlock</t>
+  </si>
+  <si>
+    <t>selectTower</t>
+  </si>
+  <si>
+    <t>towerCase</t>
+  </si>
+  <si>
+    <t>Tower2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower2.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere2_1</t>
+  </si>
+  <si>
+    <t>sphere2_2</t>
+  </si>
+  <si>
+    <t>Tower3_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower3.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere3_1</t>
+  </si>
+  <si>
+    <t>sphere3_2</t>
+  </si>
+  <si>
+    <t>sphere3_3</t>
+  </si>
+  <si>
+    <t>Tower4.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower4_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere4_1</t>
+  </si>
+  <si>
+    <t>sphere4_2</t>
+  </si>
+  <si>
+    <t>sphere4_3</t>
+  </si>
+  <si>
+    <t>sphere4_4</t>
+  </si>
+  <si>
+    <t>Tower5.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower5_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgr1</t>
+  </si>
+  <si>
+    <t>Tower6.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower6_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shotAnima</t>
+  </si>
+  <si>
+    <t>Tower7.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont2</t>
+  </si>
+  <si>
+    <t>cont3</t>
+  </si>
+  <si>
+    <t>round1</t>
+  </si>
+  <si>
+    <t>round2</t>
+  </si>
+  <si>
+    <t>round3</t>
+  </si>
+  <si>
+    <t>round4</t>
+  </si>
+  <si>
+    <t>upgr1_1</t>
+  </si>
+  <si>
+    <t>upgr1_2</t>
+  </si>
+  <si>
+    <t>upgr1_3</t>
+  </si>
+  <si>
+    <t>upgr1_4</t>
+  </si>
+  <si>
+    <t>upgr1_5</t>
+  </si>
+  <si>
+    <t>upgr1_6</t>
+  </si>
+  <si>
+    <t>upgr1_7</t>
+  </si>
+  <si>
+    <t>upgr1_8</t>
+  </si>
+  <si>
+    <t>Tower8.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower8_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower7_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireLight1</t>
+  </si>
+  <si>
+    <t>cont4</t>
+  </si>
+  <si>
+    <t>cont5</t>
+  </si>
+  <si>
+    <t>cont6</t>
   </si>
 </sst>
 </file>
@@ -735,13 +999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,11 +1105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,20 +1126,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -887,6 +1140,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1167,52 +1435,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1222,18 +1499,22 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -1241,18 +1522,22 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1260,18 +1545,22 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -1279,18 +1568,22 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1298,18 +1591,22 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="D6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -1317,18 +1614,22 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>31</v>
@@ -1336,20 +1637,24 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -1357,20 +1662,24 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -1378,20 +1687,24 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -1399,20 +1712,24 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -1420,18 +1737,22 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="D12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -1439,18 +1760,22 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1458,18 +1783,22 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -1477,18 +1806,22 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>39</v>
@@ -1496,18 +1829,22 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="D16" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -1515,776 +1852,926 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="D17" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="J21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="D22" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="D23" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="D24" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="D28" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="D32" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="D34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="D37" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="D38" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="D39" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
+      <c r="D40" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C41" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
+      <c r="D41" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D42" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D43" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="D44" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C51" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="D51" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2295,734 +2782,874 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2F131-2AB5-4F7D-B09E-C54B42509058}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="9" max="9" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col min="11" max="11" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="D3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="14" t="str">
         <f>B3</f>
         <v>dust1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="D4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="14" t="str">
         <f>B4</f>
         <v>dust2</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="D6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="14" t="str">
         <f>B6</f>
         <v>dust1</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="D7" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="14" t="str">
         <f>B7</f>
         <v>dust2</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="str">
+      <c r="D9" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="14" t="str">
         <f>B9</f>
         <v>dust1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
       <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="1" t="str">
+      <c r="D10" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="14" t="str">
         <f>B10</f>
         <v>dust2</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
+      <c r="D11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="str">
         <f>B11</f>
-        <v>MoveGolem_mc</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>Golem1HorisontDeath_mc</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
-        <f>B12</f>
-        <v>Golem1HorisontDeath_mc</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="str">
+        <f t="shared" ref="H12:H16" si="0">B12</f>
+        <v>Golem2HorisontDeath_mc</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13:F17" si="0">B13</f>
-        <v>Golem2HorisontDeath_mc</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="str">
+      <c r="D13" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Golem3HorisontDeath_mc</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Golem1VerticalDeath_mc</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="str">
+      <c r="D15" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Golem2VerticalDeath_mc</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="str">
+      <c r="D16" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Golem3VerticalDeath_mc</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="str">
+        <f>B17</f>
+        <v>MoveGolem_mc</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="str">
+      <c r="F18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="str">
         <f>B18</f>
         <v>Iceman_mc</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="str">
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="str">
         <f>B19</f>
         <v>BlowIce_mc</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="str">
+      <c r="F20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="str">
         <f>B20</f>
         <v>IceRoad_mc</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="str">
-        <f>B21</f>
-        <v>MoveIceman_mc</v>
+      <c r="F21" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="str">
+        <f t="shared" ref="H21:H22" si="1">B21</f>
+        <v>IcemanHorisontDeath_mc</v>
+      </c>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="str">
-        <f t="shared" ref="F22:F23" si="1">B22</f>
-        <v>IcemanHorisontDeath_mc</v>
+      <c r="F22" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IcemanVerticalDeath_mc</v>
+      </c>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>IcemanVerticalDeath_mc</v>
+      <c r="F23" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="str">
+        <f>B23</f>
+        <v>MoveIceman_mc</v>
+      </c>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="str">
-        <f t="shared" ref="F24:F33" si="2">B24</f>
+      <c r="F24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="str">
+        <f t="shared" ref="H24:H33" si="2">B24</f>
         <v>Air_mc</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>cont</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
-        <v>76</v>
+      <c r="B26" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>contBlowing</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>dust1</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>dust2</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="str">
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>MoveAir_mc</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>down</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>left</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>right</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1" t="str">
+        <v>188</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>up</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="18"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="K2:K10"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K24:K28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3032,492 +3659,559 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1923BD-7A8E-415C-AAAA-3A9E1AA7620E}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="str">
         <f>B2</f>
         <v>BuildTowerSmoke_mc</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F4" si="0">B3</f>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H4" si="0">B3</f>
         <v>BuildTowerMenu_mc</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>144</v>
+      <c r="B4" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>cont</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>146</v>
+      <c r="B5" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>147</v>
+      <c r="B6" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>144</v>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>157</v>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>148</v>
+      <c r="B12" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>160</v>
+      <c r="B14" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>161</v>
+      <c r="B15" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
-        <v>147</v>
+      <c r="B16" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>162</v>
+      <c r="B17" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="6" t="s">
-        <v>147</v>
+      <c r="B18" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>163</v>
+      <c r="B19" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
-        <v>147</v>
+      <c r="B20" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>164</v>
+      <c r="B21" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="6" t="s">
-        <v>147</v>
+      <c r="B22" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>165</v>
+      <c r="B23" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
-        <v>166</v>
+      <c r="B24" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>167</v>
+      <c r="B25" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>168</v>
+      <c r="B26" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="6" t="s">
-        <v>179</v>
+      <c r="B27" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="7" t="s">
-        <v>147</v>
+      <c r="B28" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="7" t="s">
-        <v>180</v>
+      <c r="B29" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3526,319 +4220,2297 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>169</v>
+      <c r="B30" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="6" t="s">
-        <v>173</v>
+      <c r="B31" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="7" t="s">
-        <v>174</v>
+      <c r="B32" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
-        <v>175</v>
+      <c r="B33" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="7" t="s">
-        <v>176</v>
+      <c r="B34" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="7" t="s">
-        <v>177</v>
+      <c r="B35" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>170</v>
+      <c r="B36" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="7" t="s">
-        <v>174</v>
+      <c r="B37" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="7" t="s">
-        <v>175</v>
+      <c r="B38" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="7" t="s">
-        <v>176</v>
+      <c r="B39" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="7" t="s">
-        <v>177</v>
+      <c r="B40" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="5" t="s">
-        <v>171</v>
+      <c r="B41" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="7" t="s">
-        <v>174</v>
+      <c r="B42" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="7" t="s">
-        <v>175</v>
+      <c r="B43" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="7" t="s">
-        <v>176</v>
+      <c r="B44" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="7" t="s">
-        <v>177</v>
+      <c r="B45" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="5" t="s">
-        <v>172</v>
+      <c r="B46" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="7" t="s">
-        <v>174</v>
+      <c r="B47" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="7" t="s">
-        <v>175</v>
+      <c r="B48" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="7" t="s">
-        <v>176</v>
+      <c r="B49" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="7" t="s">
-        <v>177</v>
+      <c r="B50" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>178</v>
-      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3851,7 +6523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA63EA2-B2CC-4050-B8E3-63A93E196503}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3867,40 +6539,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>63</v>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="str">
@@ -3914,10 +6586,10 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="str">
@@ -3931,10 +6603,10 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="str">
@@ -3948,10 +6620,10 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
@@ -3964,13 +6636,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
@@ -3984,10 +6656,10 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="str">
@@ -4001,10 +6673,10 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="str">
@@ -4018,10 +6690,10 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="str">
@@ -4035,10 +6707,10 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="str">
@@ -4052,10 +6724,10 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="str">
@@ -4069,10 +6741,10 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="str">
@@ -4086,10 +6758,10 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4099,14 +6771,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>125</v>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4118,11 +6790,11 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>126</v>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
@@ -4131,15 +6803,15 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
-        <v>133</v>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -4147,15 +6819,15 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="6" t="s">
-        <v>127</v>
+      <c r="B17" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -4164,10 +6836,10 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="str">
@@ -4181,10 +6853,10 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="str">
@@ -4198,10 +6870,10 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="str">
@@ -4215,10 +6887,10 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="str">
@@ -4231,13 +6903,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="str">
@@ -4260,7 +6932,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4272,37 +6944,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>63</v>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4316,8 +6988,8 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>111</v>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4331,8 +7003,8 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>112</v>
+      <c r="B4" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4346,8 +7018,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>113</v>
+      <c r="B5" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4361,8 +7033,8 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>114</v>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4376,8 +7048,8 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>115</v>
+      <c r="B7" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4392,7 +7064,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4407,7 +7079,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4421,8 +7093,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>111</v>
+      <c r="B10" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4436,8 +7108,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>118</v>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{577186B1-5FA9-485B-A381-82A8EF02ED96}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7B1BAA6-EA24-4B86-AAE6-BCBB8E7BE334}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="tower" sheetId="4" r:id="rId3"/>
     <sheet name="bullet sphere" sheetId="3" r:id="rId4"/>
     <sheet name="world" sheetId="5" r:id="rId5"/>
+    <sheet name="screen" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="354">
   <si>
     <t>UnitTeleportOut_mc</t>
   </si>
@@ -443,10 +444,6 @@
     <t>smoke</t>
   </si>
   <si>
-    <t>Cont2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BulletTower61_mc</t>
   </si>
   <si>
@@ -462,10 +459,6 @@
     <t>BulletTower51_1_mc</t>
   </si>
   <si>
-    <t>Cont1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smokeCont1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,14 +475,7 @@
     <t>BulletTower8_1_mc</t>
   </si>
   <si>
-    <t>BulletTower7_smoke_mc</t>
-  </si>
-  <si>
     <t>UnitShadow_mc</t>
-  </si>
-  <si>
-    <t>Bullet_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BuildTowerMenu.h</t>
@@ -907,52 +893,344 @@
     <t>round4</t>
   </si>
   <si>
+    <t>upgr1_2</t>
+  </si>
+  <si>
+    <t>upgr1_3</t>
+  </si>
+  <si>
+    <t>upgr1_4</t>
+  </si>
+  <si>
+    <t>upgr1_5</t>
+  </si>
+  <si>
+    <t>upgr1_6</t>
+  </si>
+  <si>
+    <t>upgr1_7</t>
+  </si>
+  <si>
+    <t>upgr1_8</t>
+  </si>
+  <si>
+    <t>Tower8.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower8_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower7_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireLight1</t>
+  </si>
+  <si>
+    <t>cont4</t>
+  </si>
+  <si>
+    <t>cont5</t>
+  </si>
+  <si>
+    <t>cont6</t>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>cont2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower71_mc</t>
+  </si>
+  <si>
+    <t>Bullet_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower7_smoke_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShotTower51_2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>upgr1_1</t>
-  </si>
-  <si>
-    <t>upgr1_2</t>
-  </si>
-  <si>
-    <t>upgr1_3</t>
-  </si>
-  <si>
-    <t>upgr1_4</t>
-  </si>
-  <si>
-    <t>upgr1_5</t>
-  </si>
-  <si>
-    <t>upgr1_6</t>
-  </si>
-  <si>
-    <t>upgr1_7</t>
-  </si>
-  <si>
-    <t>upgr1_8</t>
-  </si>
-  <si>
-    <t>Tower8.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower8_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower7_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireLight1</t>
-  </si>
-  <si>
-    <t>cont4</t>
-  </si>
-  <si>
-    <t>cont5</t>
-  </si>
-  <si>
-    <t>cont6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTower5_1Smoke1_mc</t>
+  </si>
+  <si>
+    <t>RadiusFire_mc</t>
+  </si>
+  <si>
+    <t>RadiusIce_mc</t>
+  </si>
+  <si>
+    <t>RadiusStone_mc</t>
+  </si>
+  <si>
+    <t>RadiusLevin_mc</t>
+  </si>
+  <si>
+    <t>RadiusGetAll_mc</t>
+  </si>
+  <si>
+    <t>myTower</t>
+  </si>
+  <si>
+    <t>numTXT</t>
+  </si>
+  <si>
+    <t>MoveLevin_mc</t>
+  </si>
+  <si>
+    <t>MoveFire_mc</t>
+  </si>
+  <si>
+    <t>MoveIce_mc</t>
+  </si>
+  <si>
+    <t>MoveStone_mc</t>
+  </si>
+  <si>
+    <t>CastSphere.h</t>
+  </si>
+  <si>
+    <t>CastFire_mc</t>
+  </si>
+  <si>
+    <t>CastIce_mc</t>
+  </si>
+  <si>
+    <t>CastStone_mc</t>
+  </si>
+  <si>
+    <t>CastLevin_mc</t>
+  </si>
+  <si>
+    <t>CastFireIce_mc</t>
+  </si>
+  <si>
+    <t>CastFireStone_mc</t>
+  </si>
+  <si>
+    <t>CastFireLevin_mc</t>
+  </si>
+  <si>
+    <t>CastIceStone_mc</t>
+  </si>
+  <si>
+    <t>CastIceLevin_mc</t>
+  </si>
+  <si>
+    <t>CastStoneLevin_mc</t>
+  </si>
+  <si>
+    <t>CastGetAllLittle_mc</t>
+  </si>
+  <si>
+    <t>CastGetAll_mc</t>
+  </si>
+  <si>
+    <t>CastGetAllSwamp_mc</t>
+  </si>
+  <si>
+    <t>CastMask_mc</t>
+  </si>
+  <si>
+    <t>swamp1</t>
+  </si>
+  <si>
+    <t>swamp2</t>
+  </si>
+  <si>
+    <t>swamp3</t>
+  </si>
+  <si>
+    <t>swamp4</t>
+  </si>
+  <si>
+    <t>swamp5</t>
+  </si>
+  <si>
+    <t>haze1</t>
+  </si>
+  <si>
+    <t>haze2</t>
+  </si>
+  <si>
+    <t>haze3</t>
+  </si>
+  <si>
+    <t>haze4</t>
+  </si>
+  <si>
+    <t>haze5</t>
+  </si>
+  <si>
+    <t>haze6</t>
+  </si>
+  <si>
+    <t>haze7</t>
+  </si>
+  <si>
+    <t>haze8</t>
+  </si>
+  <si>
+    <t>haze9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interfaceUpCase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">castAirCase   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">archiveCase  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castGolemCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castIcemanCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fireCase   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllCase  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stoneCase     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sellCase  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">levinCase   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iceCase   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldInterface.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelsMenu_mc</t>
+  </si>
+  <si>
+    <t>LevelsMenu.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldinterface</t>
+  </si>
+  <si>
+    <t>Level1_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorationCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldinterface/level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadLevel1_mc</t>
+  </si>
+  <si>
+    <t>RoadsignFire_mc</t>
+  </si>
+  <si>
+    <t>RoadsignIce_mc</t>
+  </si>
+  <si>
+    <t>RoadsignStone_mc</t>
+  </si>
+  <si>
+    <t>RoadsignLevin_mc</t>
+  </si>
+  <si>
+    <t>Hint_mc</t>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTXT</t>
   </si>
 </sst>
 </file>
@@ -1131,6 +1409,21 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,21 +1433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1459,19 +1737,19 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>74</v>
@@ -1499,12 +1777,12 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="14"/>
+      <c r="D2" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -1522,12 +1800,12 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="14"/>
+      <c r="D3" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -1545,12 +1823,12 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="14"/>
+      <c r="D4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -1568,12 +1846,12 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="14"/>
+      <c r="D5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -1591,12 +1869,12 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="14"/>
+      <c r="D6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
@@ -1614,12 +1892,12 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="D7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -1637,12 +1915,12 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="14"/>
+      <c r="D8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
@@ -1662,12 +1940,12 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="14"/>
+      <c r="D9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -1687,12 +1965,12 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="D10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
@@ -1712,12 +1990,12 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="14"/>
+      <c r="D11" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
@@ -1737,12 +2015,12 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="14"/>
+      <c r="D12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -1760,12 +2038,12 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="D13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1783,12 +2061,12 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="D14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
@@ -1806,12 +2084,12 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="D15" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
@@ -1829,12 +2107,12 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="D16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
@@ -1852,12 +2130,12 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="14"/>
+      <c r="D17" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
@@ -1867,851 +2145,851 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="D18" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="D19" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="D20" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="D21" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14" t="s">
+      <c r="D22" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14" t="s">
+      <c r="D23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="s">
+      <c r="D24" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="s">
+      <c r="D25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
+      <c r="D26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
+      <c r="D27" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
+      <c r="D28" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14" t="s">
+      <c r="D29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="s">
+      <c r="D30" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14" t="s">
+      <c r="D31" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
+      <c r="D32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="s">
+      <c r="D33" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14" t="s">
+      <c r="D34" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14" t="s">
+      <c r="D35" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14" t="s">
+      <c r="D36" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14" t="s">
+      <c r="D37" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14" t="s">
+      <c r="D38" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14" t="s">
+      <c r="D39" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14" t="s">
+      <c r="D40" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14" t="s">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14" t="s">
+      <c r="D41" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="s">
+      <c r="D42" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14" t="s">
+      <c r="D43" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14" t="s">
+      <c r="D44" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14" t="s">
+      <c r="D45" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14" t="s">
+      <c r="D46" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14" t="s">
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14" t="s">
+      <c r="D47" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14" t="s">
+      <c r="D48" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14" t="s">
+      <c r="D49" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="14" t="s">
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14" t="s">
+      <c r="D50" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14" t="s">
+      <c r="D51" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>7</v>
@@ -2719,43 +2997,43 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="14" t="s">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>7</v>
@@ -2763,11 +3041,11 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2784,7 +3062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2F131-2AB5-4F7D-B09E-C54B42509058}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2812,13 +3090,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>74</v>
@@ -2836,421 +3114,421 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="D2" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="D3" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="14" t="str">
+      <c r="H3" s="11" t="str">
         <f>B3</f>
         <v>dust1</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="D4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="14" t="str">
+      <c r="H4" s="11" t="str">
         <f>B4</f>
         <v>dust2</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="11" t="str">
         <f>B6</f>
         <v>dust1</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="D7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="14" t="str">
+      <c r="H7" s="11" t="str">
         <f>B7</f>
         <v>dust2</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="D8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="D9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="14" t="str">
+      <c r="H9" s="11" t="str">
         <f>B9</f>
         <v>dust1</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="11" t="str">
         <f>B10</f>
         <v>dust2</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="str">
+      <c r="D11" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="str">
         <f>B11</f>
         <v>Golem1HorisontDeath_mc</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="str">
+      <c r="D12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="str">
         <f t="shared" ref="H12:H16" si="0">B12</f>
         <v>Golem2HorisontDeath_mc</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="str">
+      <c r="D13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Golem3HorisontDeath_mc</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
+      <c r="D14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Golem1VerticalDeath_mc</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="str">
+      <c r="D15" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Golem2VerticalDeath_mc</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="str">
+      <c r="D16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Golem3VerticalDeath_mc</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="str">
+      <c r="D17" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="str">
         <f>B17</f>
         <v>MoveGolem_mc</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="str">
@@ -3270,11 +3548,11 @@
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="str">
@@ -3294,11 +3572,11 @@
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="str">
@@ -3312,17 +3590,17 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="str">
@@ -3342,11 +3620,11 @@
         <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="str">
@@ -3358,21 +3636,21 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>194</v>
+      <c r="A23" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="str">
@@ -3394,11 +3672,11 @@
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="str">
@@ -3407,8 +3685,8 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="11" t="s">
-        <v>186</v>
+      <c r="K24" s="18" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3420,11 +3698,11 @@
         <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>69</v>
@@ -3435,7 +3713,7 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -3446,11 +3724,11 @@
         <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>69</v>
@@ -3461,7 +3739,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -3472,11 +3750,11 @@
         <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>69</v>
@@ -3487,7 +3765,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -3498,11 +3776,11 @@
         <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>69</v>
@@ -3513,10 +3791,10 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>70</v>
       </c>
@@ -3524,11 +3802,11 @@
         <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="str">
@@ -3537,8 +3815,8 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="11" t="s">
-        <v>184</v>
+      <c r="K29" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3550,11 +3828,11 @@
         <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>70</v>
@@ -3565,7 +3843,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -3576,11 +3854,11 @@
         <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>70</v>
@@ -3591,7 +3869,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -3602,11 +3880,11 @@
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>70</v>
@@ -3617,7 +3895,7 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -3628,11 +3906,11 @@
         <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>70</v>
@@ -3643,7 +3921,7 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="13"/>
+      <c r="K33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3659,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1923BD-7A8E-415C-AAAA-3A9E1AA7620E}">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3688,13 +3966,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>74</v>
@@ -3723,11 +4001,11 @@
         <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="str">
@@ -3740,20 +4018,20 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="str">
@@ -3767,7 +4045,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>103</v>
@@ -3775,7 +4053,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="str">
@@ -3789,7 +4067,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
@@ -3797,7 +4075,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3808,7 +4086,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>103</v>
@@ -3816,7 +4094,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3826,10 +4104,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>103</v>
@@ -3837,7 +4115,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3848,7 +4126,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>103</v>
@@ -3856,7 +4134,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3867,13 +4145,13 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3884,13 +4162,13 @@
     <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3901,13 +4179,13 @@
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -3918,7 +4196,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>103</v>
@@ -3926,7 +4204,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3937,7 +4215,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>103</v>
@@ -3945,7 +4223,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3956,13 +4234,13 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3973,13 +4251,13 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3990,13 +4268,13 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4007,13 +4285,13 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4024,13 +4302,13 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4041,13 +4319,13 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4058,13 +4336,13 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4075,13 +4353,13 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4092,13 +4370,13 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4109,13 +4387,13 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4126,13 +4404,13 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4143,13 +4421,13 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4160,13 +4438,13 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4177,13 +4455,13 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4194,13 +4472,13 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4211,7 +4489,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4226,13 +4504,13 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4243,13 +4521,13 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4260,13 +4538,13 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4277,13 +4555,13 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4294,13 +4572,13 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4311,13 +4589,13 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4328,13 +4606,13 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4345,13 +4623,13 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4362,13 +4640,13 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4379,13 +4657,13 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4396,13 +4674,13 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4413,13 +4691,13 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4430,13 +4708,13 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -4447,13 +4725,13 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -4464,13 +4742,13 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -4481,13 +4759,13 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -4498,13 +4776,13 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -4515,13 +4793,13 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -4532,13 +4810,13 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -4549,13 +4827,13 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -4566,13 +4844,13 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -4582,10 +4860,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>103</v>
@@ -4593,7 +4871,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -4603,16 +4881,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -4622,16 +4900,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -4642,13 +4920,13 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -4659,13 +4937,13 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -4676,13 +4954,13 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4693,7 +4971,7 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4708,7 +4986,7 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4723,7 +5001,7 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4738,7 +5016,7 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4753,7 +5031,7 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -4768,7 +5046,7 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -4783,7 +5061,7 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -4798,7 +5076,7 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -4813,13 +5091,13 @@
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -4830,7 +5108,7 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -4845,7 +5123,7 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4860,7 +5138,7 @@
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -4875,7 +5153,7 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4890,13 +5168,13 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4907,13 +5185,13 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4924,13 +5202,13 @@
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -4941,13 +5219,13 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -4958,13 +5236,13 @@
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -4975,13 +5253,13 @@
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -4992,13 +5270,13 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -5009,13 +5287,13 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -5026,13 +5304,13 @@
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -5043,13 +5321,13 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -5059,14 +5337,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="20" t="s">
-        <v>218</v>
+      <c r="B80" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -5077,13 +5355,13 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -5094,13 +5372,13 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -5111,13 +5389,13 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -5127,16 +5405,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -5147,13 +5425,13 @@
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5164,13 +5442,13 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -5181,13 +5459,13 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -5198,13 +5476,13 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5221,7 +5499,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -5230,18 +5508,14 @@
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>227</v>
+      <c r="A90" s="1"/>
+      <c r="B90" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5250,15 +5524,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="3" t="s">
-        <v>223</v>
+      <c r="B91" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5266,15 +5538,17 @@
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>224</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5285,13 +5559,13 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -5302,13 +5576,13 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5319,13 +5593,13 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="3" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -5336,13 +5610,13 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -5353,13 +5627,13 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="3" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5368,18 +5642,14 @@
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>231</v>
+      <c r="A98" s="1"/>
+      <c r="B98" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -5388,15 +5658,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="3" t="s">
-        <v>223</v>
+      <c r="B99" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -5406,13 +5674,13 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -5422,15 +5690,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="3" t="s">
-        <v>225</v>
+      <c r="B101" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -5439,15 +5705,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="3" t="s">
-        <v>226</v>
+      <c r="B102" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5457,13 +5721,13 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="3" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -5473,15 +5737,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="3" t="s">
-        <v>229</v>
+      <c r="B104" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -5490,15 +5752,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="3" t="s">
-        <v>230</v>
+      <c r="B105" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -5506,14 +5766,18 @@
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="3" t="s">
-        <v>233</v>
+      <c r="A106" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5523,12 +5787,14 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5538,12 +5804,14 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5551,17 +5819,15 @@
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>237</v>
+      <c r="A109" s="1"/>
+      <c r="B109" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -5572,13 +5838,13 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -5589,13 +5855,13 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="3" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -5605,15 +5871,13 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="3" t="s">
-        <v>225</v>
+      <c r="B112" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -5622,15 +5886,13 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="3" t="s">
-        <v>226</v>
+      <c r="B113" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -5640,13 +5902,13 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="3" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -5656,15 +5918,13 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="3" t="s">
-        <v>229</v>
+      <c r="B115" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -5673,15 +5933,13 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="3" t="s">
-        <v>230</v>
+      <c r="B116" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -5691,13 +5949,13 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -5707,15 +5965,13 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="3" t="s">
-        <v>234</v>
+      <c r="B118" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -5724,15 +5980,13 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="3" t="s">
-        <v>235</v>
+      <c r="B119" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -5742,14 +5996,12 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -5758,15 +6010,13 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="3" t="s">
-        <v>239</v>
+      <c r="B121" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -5775,15 +6025,13 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="3" t="s">
-        <v>240</v>
+      <c r="B122" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -5793,14 +6041,12 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -5808,18 +6054,14 @@
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>243</v>
+      <c r="A124" s="1"/>
+      <c r="B124" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -5828,15 +6070,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="3" t="s">
-        <v>223</v>
+      <c r="B125" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -5846,14 +6086,12 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -5862,15 +6100,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="3" t="s">
-        <v>244</v>
+      <c r="B127" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -5879,15 +6115,13 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="3" t="s">
-        <v>226</v>
+      <c r="B128" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5895,15 +6129,17 @@
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="3" t="s">
-        <v>245</v>
+      <c r="A129" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -5912,17 +6148,15 @@
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>247</v>
+      <c r="A130" s="1"/>
+      <c r="B130" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -5933,13 +6167,13 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -5950,13 +6184,13 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -5967,13 +6201,13 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="3" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -5984,13 +6218,13 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="3" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -5999,18 +6233,14 @@
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B135" s="20" t="s">
+      <c r="A135" s="1"/>
+      <c r="B135" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -6019,15 +6249,13 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="3" t="s">
-        <v>223</v>
+      <c r="B136" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -6037,13 +6265,13 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -6053,15 +6281,13 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="3" t="s">
-        <v>226</v>
+      <c r="B138" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -6070,15 +6296,13 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="3" t="s">
-        <v>250</v>
+      <c r="B139" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -6088,13 +6312,13 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="3" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -6104,15 +6328,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="3" t="s">
-        <v>252</v>
+      <c r="B141" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -6121,15 +6343,13 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="3" t="s">
-        <v>253</v>
+      <c r="B142" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -6139,13 +6359,13 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="3" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -6155,15 +6375,13 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="3" t="s">
-        <v>255</v>
+      <c r="B144" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -6172,15 +6390,13 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="3" t="s">
-        <v>256</v>
+      <c r="B145" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -6190,13 +6406,13 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="3" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -6206,15 +6422,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="3" t="s">
-        <v>258</v>
+      <c r="B147" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -6223,15 +6437,13 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="3" t="s">
-        <v>259</v>
+      <c r="B148" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -6241,13 +6453,13 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="3" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -6257,15 +6469,13 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="3" t="s">
-        <v>261</v>
+      <c r="B150" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -6274,15 +6484,13 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="3" t="s">
-        <v>262</v>
+      <c r="B151" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -6292,13 +6500,13 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="3" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -6308,15 +6516,13 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="3" t="s">
-        <v>264</v>
+      <c r="B153" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -6324,18 +6530,14 @@
       <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>266</v>
+      <c r="A154" s="1"/>
+      <c r="B154" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -6345,13 +6547,13 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -6361,15 +6563,13 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="3" t="s">
-        <v>224</v>
+      <c r="B156" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -6378,15 +6578,13 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="3" t="s">
-        <v>226</v>
+      <c r="B157" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -6396,13 +6594,13 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -6412,15 +6610,13 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="3" t="s">
-        <v>251</v>
+      <c r="B159" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -6429,15 +6625,13 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="3" t="s">
-        <v>252</v>
+      <c r="B160" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -6447,13 +6641,13 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="3" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -6463,15 +6657,13 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="3" t="s">
-        <v>270</v>
+      <c r="B162" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -6480,15 +6672,13 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="3" t="s">
-        <v>271</v>
+      <c r="B163" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -6496,21 +6686,724 @@
       <c r="K163" s="1"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="3" t="s">
-        <v>268</v>
+      <c r="A164" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6521,10 +7414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA63EA2-B2CC-4050-B8E3-63A93E196503}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6646,7 +7539,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E14" si="0">B6</f>
+        <f t="shared" ref="E6:E15" si="0">B6</f>
         <v>BulletTower5_1_mc</v>
       </c>
       <c r="F6" s="1"/>
@@ -6656,16 +7549,11 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BulletTower5_1Bang_mc</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6673,7 +7561,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>115</v>
@@ -6681,7 +7569,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BulletTower51_1_mc</v>
+        <v>BulletTower5_1Bang_mc</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6698,7 +7586,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BulletTower51_2_mc</v>
+        <v>BulletTower51_1_mc</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6715,7 +7603,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BulletTower6_1_mc</v>
+        <v>BulletTower51_2_mc</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -6732,7 +7620,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BulletTower6_2_mc</v>
+        <v>BulletTower6_1_mc</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -6749,7 +7637,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BulletTower61_mc</v>
+        <v>BulletTower6_2_mc</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -6758,32 +7646,30 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BulletTower61_mc</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>120</v>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>ball</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6791,28 +7677,31 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ball</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
-        <v>128</v>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6820,14 +7709,14 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6835,16 +7724,15 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>134</v>
+      <c r="B18" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="str">
-        <f t="shared" ref="E18:E22" si="1">B18</f>
-        <v>BulletTower7_smoke_mc</v>
+      <c r="E18" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -6852,33 +7740,30 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="B19" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BulletTower8_1_mc</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BulletTower8_2_mc</v>
+        <f t="shared" ref="E20:E24" si="1">B20</f>
+        <v>BulletTower7_smoke_mc</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6895,18 +7780,16 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BulletTower81_mc</v>
+        <v>BulletTower8_1_mc</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>115</v>
@@ -6914,11 +7797,47 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UnitShadow_mc</v>
+        <v>BulletTower8_2_mc</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BulletTower81_mc</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>UnitShadow_mc</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6929,16 +7848,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E73D0-D4B9-457D-8D8A-52FD778FEEDA}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6976,8 +7896,12 @@
       <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E2" s="1" t="str">
         <f>B2</f>
         <v>GetSphere_mc</v>
@@ -6991,10 +7915,14 @@
       <c r="B3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E11" si="0">B3</f>
+        <f t="shared" ref="E3:E62" si="0">B3</f>
         <v>cont</v>
       </c>
       <c r="F3" s="1"/>
@@ -7006,8 +7934,12 @@
       <c r="B4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>sphere1</v>
@@ -7021,8 +7953,12 @@
       <c r="B5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>sphere2</v>
@@ -7036,8 +7972,12 @@
       <c r="B6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>sphere3</v>
@@ -7051,8 +7991,12 @@
       <c r="B7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>sphere4</v>
@@ -7066,8 +8010,12 @@
       <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Arrow_mc</v>
@@ -7078,14 +8026,18 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>GetAll_mc</v>
+        <v>myTower</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7093,14 +8045,18 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>cont</v>
+        <v>GetAll_mc</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7109,13 +8065,17 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>cross</v>
+        <v>numTXT</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7123,93 +8083,1659 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cross</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RadiusFire_mc</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RadiusIce_mc</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RadiusStone_mc</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RadiusLevin_mc</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RadiusGetAll_mc</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont1</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont2</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont3</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MoveFire_mc</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MoveIce_mc</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MoveLevin_mc</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MoveStone_mc</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MoveLevin_mc</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastFire_mc</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastIce_mc</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastStone_mc</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastLevin_mc</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastFireIce_mc</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastFireStone_mc</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastFireLevin_mc</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastIceStone_mc</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastIceLevin_mc</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastStoneLevin_mc</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastGetAllLittle_mc</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastGetAll_mc</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze1</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze2</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze3</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze4</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze5</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze6</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze7</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze8</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haze9</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CastGetAllSwamp_mc</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>swamp1</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>swamp2</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>swamp3</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>swamp4</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>swamp5</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f t="shared" ref="E63:E80" si="1">B63</f>
+        <v>Level1_mc</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>decoration</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>decoration1</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>decorationCase</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>flag1</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>flag2</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>place1</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>place2</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>place3</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>place4</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>place5</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pointer1</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RoadLevel1_mc</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RoadsignFire_mc</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RoadsignIce_mc</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RoadsignStone_mc</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RoadsignLevin_mc</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Hint_mc</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>B84</f>
+        <v>CastMask_mc</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>B85</f>
+        <v xml:space="preserve">archiveCase  </v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>B86</f>
+        <v xml:space="preserve">castAirCase   </v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>B87</f>
+        <v>castGolemCase</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>B88</f>
+        <v>castIcemanCase</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>B89</f>
+        <v xml:space="preserve">fireCase   </v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>B90</f>
+        <v xml:space="preserve">getAllCase  </v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>B91</f>
+        <v xml:space="preserve">iceCase   </v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>B92</f>
+        <v xml:space="preserve">interfaceUpCase </v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>B93</f>
+        <v xml:space="preserve">levinCase   </v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>B94</f>
+        <v xml:space="preserve">sellCase  </v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>B95</f>
+        <v xml:space="preserve">stoneCase     </v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A16EEB-F50D-42B7-922A-BBDE591E0849}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7B1BAA6-EA24-4B86-AAE6-BCBB8E7BE334}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FE5A8B3-DB2E-451C-B9D7-7326FFED67BA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="528">
   <si>
     <t>UnitTeleportOut_mc</t>
   </si>
@@ -1211,26 +1211,573 @@
     <t>RoadLevel1_mc</t>
   </si>
   <si>
+    <t>RoadsignIce_mc</t>
+  </si>
+  <si>
+    <t>RoadsignStone_mc</t>
+  </si>
+  <si>
+    <t>RoadsignLevin_mc</t>
+  </si>
+  <si>
+    <t>Hint_mc</t>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTXT</t>
+  </si>
+  <si>
+    <t>BonusMoney.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusMoney_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level2_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level3_mc</t>
+  </si>
+  <si>
+    <t>Level4_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RoadsignFire_mc</t>
-  </si>
-  <si>
-    <t>RoadsignIce_mc</t>
-  </si>
-  <si>
-    <t>RoadsignStone_mc</t>
-  </si>
-  <si>
-    <t>RoadsignLevin_mc</t>
-  </si>
-  <si>
-    <t>Hint_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyAdd_mc</t>
+  </si>
+  <si>
+    <t>MoneyAdd.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SavedCastTime_mc</t>
+  </si>
+  <si>
+    <t>SavedCastTime.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange_mc</t>
+  </si>
+  <si>
+    <t>Exchange1_mc</t>
+  </si>
+  <si>
+    <t>exchangeCase</t>
+  </si>
+  <si>
+    <t>achieves</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>btnMusic</t>
+  </si>
+  <si>
+    <t>btnSound</t>
+  </si>
+  <si>
+    <t>freeStars</t>
+  </si>
+  <si>
+    <t>level10</t>
+  </si>
+  <si>
+    <t>level11</t>
+  </si>
+  <si>
+    <t>level12</t>
+  </si>
+  <si>
+    <t>level13</t>
+  </si>
+  <si>
+    <t>level14</t>
+  </si>
+  <si>
+    <t>level15</t>
+  </si>
+  <si>
+    <t>level2</t>
+  </si>
+  <si>
+    <t>level3</t>
+  </si>
+  <si>
+    <t>level4</t>
+  </si>
+  <si>
+    <t>level5</t>
+  </si>
+  <si>
+    <t>level6</t>
+  </si>
+  <si>
+    <t>level7</t>
+  </si>
+  <si>
+    <t>level8</t>
+  </si>
+  <si>
+    <t>level9</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>upgrades</t>
+  </si>
+  <si>
+    <t>wavesAnimation</t>
+  </si>
+  <si>
+    <t>NewLevel_mc</t>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeTXT</t>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradesCase1</t>
+  </si>
+  <si>
+    <t>backCase</t>
+  </si>
+  <si>
+    <t>upgradesCase2</t>
+  </si>
+  <si>
+    <t>bookCase1</t>
+  </si>
+  <si>
+    <t>bookCase2</t>
+  </si>
+  <si>
+    <t>achievesCase1</t>
+  </si>
+  <si>
+    <t>achievesCase2</t>
+  </si>
+  <si>
+    <t>musicCase</t>
+  </si>
+  <si>
+    <t>soundCase</t>
+  </si>
+  <si>
+    <t>fireCont</t>
+  </si>
+  <si>
+    <t>level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCase</t>
+  </si>
+  <si>
+    <t>MiddleScreen_mc</t>
+  </si>
+  <si>
+    <t>MiddleScreen.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftDown</t>
+  </si>
+  <si>
+    <t>leftUp</t>
+  </si>
+  <si>
+    <t>rightDown</t>
+  </si>
+  <si>
+    <t>rightUp</t>
+  </si>
+  <si>
+    <t>MiddleScreenCentr_mc</t>
+  </si>
+  <si>
+    <t>HintSurvival_mc</t>
+  </si>
+  <si>
+    <t>OpenLevel_mc</t>
+  </si>
+  <si>
+    <t>OpenLevel.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>infoAdd</t>
+  </si>
+  <si>
+    <t>getSphere</t>
+  </si>
+  <si>
+    <t>fireSphere</t>
+  </si>
+  <si>
+    <t>iceSphere</t>
+  </si>
+  <si>
+    <t>stoneSphere</t>
+  </si>
+  <si>
+    <t>levinSphere</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star1</t>
+  </si>
+  <si>
+    <t>star2</t>
+  </si>
+  <si>
+    <t>star3</t>
+  </si>
+  <si>
+    <t>wreath</t>
+  </si>
+  <si>
+    <t>mainMode</t>
+  </si>
+  <si>
+    <t>survivalMode</t>
+  </si>
+  <si>
+    <t>currentComplexity</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>complexityCase</t>
+  </si>
+  <si>
+    <t>eyes1</t>
+  </si>
+  <si>
+    <t>fireSphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survivalModeCase</t>
+  </si>
+  <si>
+    <t>headerTXT</t>
+  </si>
+  <si>
+    <t>mainModeCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PauseMenu_mc</t>
+  </si>
+  <si>
+    <t>PauseMenu.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>soundCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnLow</t>
+  </si>
+  <si>
+    <t>lowCase</t>
+  </si>
+  <si>
+    <t>btnMedium</t>
+  </si>
+  <si>
+    <t>mediumCase</t>
+  </si>
+  <si>
+    <t>btnHigh</t>
+  </si>
+  <si>
+    <t>highCase</t>
+  </si>
+  <si>
+    <t>btnOn</t>
+  </si>
+  <si>
+    <t>onCase</t>
+  </si>
+  <si>
+    <t>btnOff</t>
+  </si>
+  <si>
+    <t>offCase</t>
+  </si>
+  <si>
+    <t>btnResume</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>resumeCase</t>
+  </si>
+  <si>
+    <t>btnRestart</t>
+  </si>
+  <si>
+    <t>restartCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnExit</t>
+  </si>
+  <si>
+    <t>exitCase</t>
+  </si>
+  <si>
+    <t>btnY8</t>
+  </si>
+  <si>
+    <t>y8Case</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>btnYes</t>
+  </si>
+  <si>
+    <t>btnNo</t>
+  </si>
+  <si>
+    <t>yesCase</t>
+  </si>
+  <si>
+    <t>noCase</t>
+  </si>
+  <si>
+    <t>WorldInterface_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldInterface.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backComponents</t>
+  </si>
+  <si>
+    <t>barInfo</t>
+  </si>
+  <si>
+    <t>fireTXT</t>
+  </si>
+  <si>
+    <t>healthTXT</t>
+  </si>
+  <si>
+    <t>iceTXT</t>
+  </si>
+  <si>
+    <t>levinTXT</t>
+  </si>
+  <si>
+    <t>myTarget</t>
+  </si>
+  <si>
+    <t>penaltyTXT</t>
+  </si>
+  <si>
+    <t>speedTXT</t>
+  </si>
+  <si>
+    <t>stoneTXT</t>
+  </si>
+  <si>
+    <t>bookCase</t>
+  </si>
+  <si>
+    <t>butCastAir</t>
+  </si>
+  <si>
+    <t>butCastGolem</t>
+  </si>
+  <si>
+    <t>butCastIceman</t>
+  </si>
+  <si>
+    <t>castIcemanCase</t>
+  </si>
+  <si>
+    <t>buyTXT</t>
+  </si>
+  <si>
+    <t>buyFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightUp</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>buygetAll</t>
+  </si>
+  <si>
+    <t>buyIce</t>
+  </si>
+  <si>
+    <t>buyLevin</t>
+  </si>
+  <si>
+    <t>buyStone</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>fastCase</t>
+  </si>
+  <si>
+    <t>fireBack</t>
+  </si>
+  <si>
+    <t>fireBacklight</t>
+  </si>
+  <si>
+    <t>fireNumTXT</t>
+  </si>
+  <si>
+    <t>firePrice</t>
+  </si>
+  <si>
+    <t>sphereCase</t>
+  </si>
+  <si>
+    <t>getAll</t>
+  </si>
+  <si>
+    <t>getAllNumTXT</t>
+  </si>
+  <si>
+    <t>iceBack</t>
+  </si>
+  <si>
+    <t>iceBacklight</t>
+  </si>
+  <si>
+    <t>iceNumTXT</t>
+  </si>
+  <si>
+    <t>lastTime</t>
+  </si>
+  <si>
+    <t>levinBack</t>
+  </si>
+  <si>
+    <t>levinBacklight</t>
+  </si>
+  <si>
+    <t>levinNumTXT</t>
+  </si>
+  <si>
+    <t>liveTXT</t>
+  </si>
+  <si>
+    <t>moneyTXT</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>pauseCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectUnit</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>startWaves</t>
+  </si>
+  <si>
+    <t>startWavesCase</t>
+  </si>
+  <si>
+    <t>stoneBack</t>
+  </si>
+  <si>
+    <t>stoneBacklight</t>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneNumTXT</t>
+  </si>
+  <si>
+    <t>testRestart</t>
+  </si>
+  <si>
+    <t>testRestartBoard</t>
+  </si>
+  <si>
+    <t>waveTXT</t>
+  </si>
+  <si>
+    <t>contMask</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,6 +1979,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3937,10 +4493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1923BD-7A8E-415C-AAAA-3A9E1AA7620E}">
-  <dimension ref="A1:K205"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3972,7 +4528,7 @@
         <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>74</v>
@@ -7405,6 +7961,83 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7414,24 +8047,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA63EA2-B2CC-4050-B8E3-63A93E196503}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -7442,22 +8075,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -7468,15 +8110,18 @@
         <v>115</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="str">
         <f>B2</f>
         <v>BulletFireTower_mc</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>99</v>
@@ -7485,15 +8130,18 @@
         <v>115</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="str">
         <f>B3</f>
         <v>BulletIceTower_mc</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>100</v>
@@ -7502,15 +8150,18 @@
         <v>115</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="str">
         <f>B4</f>
         <v>BulletStoneTower_mc</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>101</v>
@@ -7519,15 +8170,18 @@
         <v>115</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="str">
         <f>B5</f>
         <v>BulletLevinTower_mc</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -7538,15 +8192,18 @@
         <v>115</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E15" si="0">B6</f>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="str">
+        <f>B6</f>
         <v>BulletTower5_1_mc</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>276</v>
@@ -7557,8 +8214,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>117</v>
@@ -7567,15 +8227,18 @@
         <v>115</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="str">
+        <f>B8</f>
         <v>BulletTower5_1Bang_mc</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>126</v>
@@ -7584,15 +8247,18 @@
         <v>115</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="str">
+        <f>B9</f>
         <v>BulletTower51_1_mc</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>125</v>
@@ -7601,15 +8267,18 @@
         <v>115</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="str">
+        <f>B10</f>
         <v>BulletTower51_2_mc</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>124</v>
@@ -7618,15 +8287,18 @@
         <v>115</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="str">
+        <f>B11</f>
         <v>BulletTower6_1_mc</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>123</v>
@@ -7635,15 +8307,18 @@
         <v>115</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="str">
+        <f>B12</f>
         <v>BulletTower6_2_mc</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>122</v>
@@ -7652,15 +8327,18 @@
         <v>115</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="str">
+        <f>B13</f>
         <v>BulletTower61_mc</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>119</v>
@@ -7673,8 +8351,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>120</v>
@@ -7682,18 +8363,21 @@
       <c r="C15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="G15" s="1" t="str">
+        <f>B15</f>
         <v>ball</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>121</v>
@@ -7702,11 +8386,15 @@
         <v>115</v>
       </c>
       <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
         <v>246</v>
@@ -7715,14 +8403,17 @@
         <v>115</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>268</v>
@@ -7731,14 +8422,17 @@
         <v>115</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>269</v>
@@ -7749,8 +8443,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>270</v>
       </c>
@@ -7761,15 +8458,18 @@
         <v>115</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="str">
-        <f t="shared" ref="E20:E24" si="1">B20</f>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="str">
+        <f>B20</f>
         <v>BulletTower7_smoke_mc</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>131</v>
@@ -7778,15 +8478,18 @@
         <v>115</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="str">
+        <f>B21</f>
         <v>BulletTower8_1_mc</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>130</v>
@@ -7795,15 +8498,18 @@
         <v>115</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="str">
+        <f>B22</f>
         <v>BulletTower8_2_mc</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>129</v>
@@ -7812,15 +8518,18 @@
         <v>115</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="str">
+        <f>B23</f>
         <v>BulletTower81_mc</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>272</v>
       </c>
@@ -7831,13 +8540,16 @@
         <v>115</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="str">
+        <f>B24</f>
         <v>UnitShadow_mc</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7848,10 +8560,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E73D0-D4B9-457D-8D8A-52FD778FEEDA}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104:C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7860,10 +8572,10 @@
     <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -7874,22 +8586,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -7899,18 +8620,21 @@
       <c r="C2" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" s="1" t="str">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>B2</f>
         <v>GetSphere_mc</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>106</v>
@@ -7918,18 +8642,21 @@
       <c r="C3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E62" si="0">B3</f>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>B3</f>
         <v>cont</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>107</v>
@@ -7937,18 +8664,21 @@
       <c r="C4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>B4</f>
         <v>sphere1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>108</v>
@@ -7956,18 +8686,21 @@
       <c r="C5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>B5</f>
         <v>sphere2</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>109</v>
@@ -7975,18 +8708,21 @@
       <c r="C6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>B6</f>
         <v>sphere3</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>110</v>
@@ -7994,18 +8730,21 @@
       <c r="C7" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>B7</f>
         <v>sphere4</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>111</v>
@@ -8013,18 +8752,21 @@
       <c r="C8" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>B8</f>
         <v>Arrow_mc</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>282</v>
@@ -8032,18 +8774,21 @@
       <c r="C9" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>B9</f>
         <v>myTower</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>112</v>
@@ -8051,18 +8796,21 @@
       <c r="C10" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>B10</f>
         <v>GetAll_mc</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>283</v>
@@ -8070,18 +8818,21 @@
       <c r="C11" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>B11</f>
         <v>numTXT</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>113</v>
@@ -8089,18 +8840,21 @@
       <c r="C12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>B12</f>
         <v>cross</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>277</v>
@@ -8108,18 +8862,21 @@
       <c r="C13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>B13</f>
         <v>RadiusFire_mc</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>106</v>
@@ -8127,18 +8884,21 @@
       <c r="C14" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>B14</f>
         <v>cont</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>278</v>
@@ -8146,18 +8906,21 @@
       <c r="C15" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>B15</f>
         <v>RadiusIce_mc</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>106</v>
@@ -8165,18 +8928,21 @@
       <c r="C16" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>B16</f>
         <v>cont</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>279</v>
@@ -8184,18 +8950,21 @@
       <c r="C17" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>B17</f>
         <v>RadiusStone_mc</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
         <v>106</v>
@@ -8203,18 +8972,21 @@
       <c r="C18" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>B18</f>
         <v>cont</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>280</v>
@@ -8222,18 +8994,21 @@
       <c r="C19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>B19</f>
         <v>RadiusLevin_mc</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>106</v>
@@ -8241,18 +9016,21 @@
       <c r="C20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>B20</f>
         <v>cont</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>281</v>
@@ -8260,18 +9038,21 @@
       <c r="C21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>B21</f>
         <v>RadiusGetAll_mc</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
         <v>106</v>
@@ -8279,18 +9060,21 @@
       <c r="C22" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>B22</f>
         <v>cont</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>144</v>
@@ -8298,18 +9082,21 @@
       <c r="C23" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>B23</f>
         <v>cont1</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
         <v>247</v>
@@ -8317,18 +9104,21 @@
       <c r="C24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>B24</f>
         <v>cont2</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
         <v>248</v>
@@ -8336,18 +9126,21 @@
       <c r="C25" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>B25</f>
         <v>cont3</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>285</v>
@@ -8355,18 +9148,21 @@
       <c r="C26" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>B26</f>
         <v>MoveFire_mc</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>106</v>
@@ -8374,18 +9170,21 @@
       <c r="C27" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>B27</f>
         <v>cont</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>286</v>
@@ -8393,18 +9192,21 @@
       <c r="C28" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>B28</f>
         <v>MoveIce_mc</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>106</v>
@@ -8412,18 +9214,21 @@
       <c r="C29" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>B29</f>
         <v>cont</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>284</v>
@@ -8431,18 +9236,21 @@
       <c r="C30" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>B30</f>
         <v>MoveLevin_mc</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
         <v>106</v>
@@ -8450,18 +9258,21 @@
       <c r="C31" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>B31</f>
         <v>cont</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>287</v>
@@ -8469,18 +9280,21 @@
       <c r="C32" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>B32</f>
         <v>MoveStone_mc</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
         <v>106</v>
@@ -8488,18 +9302,21 @@
       <c r="C33" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>B33</f>
         <v>cont</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>284</v>
@@ -8507,18 +9324,21 @@
       <c r="C34" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>B34</f>
         <v>MoveLevin_mc</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
         <v>106</v>
@@ -8526,18 +9346,21 @@
       <c r="C35" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>B35</f>
         <v>cont</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>288</v>
       </c>
@@ -8547,18 +9370,21 @@
       <c r="C36" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>B36</f>
         <v>CastFire_mc</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>290</v>
@@ -8566,18 +9392,21 @@
       <c r="C37" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>B37</f>
         <v>CastIce_mc</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>291</v>
@@ -8585,18 +9414,21 @@
       <c r="C38" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>B38</f>
         <v>CastStone_mc</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>292</v>
@@ -8604,18 +9436,21 @@
       <c r="C39" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>B39</f>
         <v>CastLevin_mc</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>293</v>
@@ -8623,18 +9458,21 @@
       <c r="C40" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f>B40</f>
         <v>CastFireIce_mc</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>294</v>
@@ -8642,18 +9480,21 @@
       <c r="C41" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f>B41</f>
         <v>CastFireStone_mc</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>295</v>
@@ -8661,18 +9502,21 @@
       <c r="C42" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>B42</f>
         <v>CastFireLevin_mc</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>296</v>
@@ -8680,18 +9524,21 @@
       <c r="C43" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>B43</f>
         <v>CastIceStone_mc</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>297</v>
@@ -8699,18 +9546,21 @@
       <c r="C44" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E44" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f>B44</f>
         <v>CastIceLevin_mc</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>298</v>
@@ -8718,18 +9568,21 @@
       <c r="C45" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>B45</f>
         <v>CastStoneLevin_mc</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>299</v>
@@ -8737,18 +9590,21 @@
       <c r="C46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>B46</f>
         <v>CastGetAllLittle_mc</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>300</v>
@@ -8756,18 +9612,21 @@
       <c r="C47" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f>B47</f>
         <v>CastGetAll_mc</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
         <v>308</v>
@@ -8775,18 +9634,21 @@
       <c r="C48" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E48" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f>B48</f>
         <v>haze1</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
         <v>309</v>
@@ -8794,18 +9656,21 @@
       <c r="C49" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>B49</f>
         <v>haze2</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
         <v>310</v>
@@ -8813,18 +9678,21 @@
       <c r="C50" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f>B50</f>
         <v>haze3</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
         <v>311</v>
@@ -8832,18 +9700,21 @@
       <c r="C51" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f>B51</f>
         <v>haze4</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
         <v>312</v>
@@ -8851,18 +9722,21 @@
       <c r="C52" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E52" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>B52</f>
         <v>haze5</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
         <v>313</v>
@@ -8870,18 +9744,21 @@
       <c r="C53" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E53" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f>B53</f>
         <v>haze6</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="3" t="s">
         <v>314</v>
@@ -8889,18 +9766,21 @@
       <c r="C54" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E54" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f>B54</f>
         <v>haze7</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="3" t="s">
         <v>315</v>
@@ -8908,18 +9788,21 @@
       <c r="C55" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E55" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f>B55</f>
         <v>haze8</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="3" t="s">
         <v>316</v>
@@ -8927,18 +9810,21 @@
       <c r="C56" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E56" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f>B56</f>
         <v>haze9</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>301</v>
@@ -8946,18 +9832,21 @@
       <c r="C57" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E57" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f>B57</f>
         <v>CastGetAllSwamp_mc</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
         <v>303</v>
@@ -8965,18 +9854,21 @@
       <c r="C58" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E58" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f>B58</f>
         <v>swamp1</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="3" t="s">
         <v>304</v>
@@ -8984,18 +9876,21 @@
       <c r="C59" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E59" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f>B59</f>
         <v>swamp2</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="3" t="s">
         <v>305</v>
@@ -9003,18 +9898,21 @@
       <c r="C60" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f>B60</f>
         <v>swamp3</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="3" t="s">
         <v>306</v>
@@ -9022,18 +9920,21 @@
       <c r="C61" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E61" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f>B61</f>
         <v>swamp4</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="3" t="s">
         <v>307</v>
@@ -9041,18 +9942,21 @@
       <c r="C62" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E62" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>B62</f>
         <v>swamp5</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>329</v>
       </c>
@@ -9062,18 +9966,21 @@
       <c r="C63" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <f t="shared" ref="E63:E80" si="1">B63</f>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>B63</f>
         <v>Level1_mc</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
         <v>344</v>
@@ -9081,18 +9988,21 @@
       <c r="C64" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>B64</f>
         <v>decoration</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
         <v>343</v>
@@ -9100,18 +10010,21 @@
       <c r="C65" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E65" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>B65</f>
         <v>decoration1</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
         <v>342</v>
@@ -9119,18 +10032,21 @@
       <c r="C66" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E66" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f>B66</f>
         <v>decorationCase</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="3" t="s">
         <v>338</v>
@@ -9138,18 +10054,21 @@
       <c r="C67" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E67" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f>B67</f>
         <v>flag1</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
         <v>339</v>
@@ -9157,18 +10076,21 @@
       <c r="C68" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f>B68</f>
         <v>flag2</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="3" t="s">
         <v>340</v>
@@ -9176,18 +10098,21 @@
       <c r="C69" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E69" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f>B69</f>
         <v>place1</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="3" t="s">
         <v>341</v>
@@ -9195,18 +10120,21 @@
       <c r="C70" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f>B70</f>
         <v>place2</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="3" t="s">
         <v>337</v>
@@ -9214,18 +10142,21 @@
       <c r="C71" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>B71</f>
         <v>place3</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="3" t="s">
         <v>336</v>
@@ -9233,18 +10164,21 @@
       <c r="C72" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f>B72</f>
         <v>place4</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="3" t="s">
         <v>335</v>
@@ -9252,18 +10186,21 @@
       <c r="C73" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E73" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f>B73</f>
         <v>place5</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="3" t="s">
         <v>334</v>
@@ -9271,132 +10208,153 @@
       <c r="C74" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E74" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f>B74</f>
         <v>pointer1</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="6" t="s">
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E75" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="C75" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="8" t="str">
+        <f>B75</f>
         <v>RoadLevel1_mc</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="6" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E76" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f>B76</f>
         <v>RoadsignFire_mc</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E77" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f>B77</f>
         <v>RoadsignIce_mc</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E78" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f>B78</f>
         <v>RoadsignStone_mc</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E79" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f>B79</f>
         <v>RoadsignLevin_mc</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E80" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="G80" s="1" t="str">
+        <f>B80</f>
         <v>Hint_mc</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="3" t="s">
         <v>136</v>
@@ -9404,15 +10362,21 @@
       <c r="C81" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="str">
+        <f t="shared" ref="G81:G92" si="0">B81</f>
+        <v>nameTXT</v>
+      </c>
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="3" t="s">
         <v>216</v>
@@ -9420,259 +10384,2588 @@
       <c r="C82" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>noteTXT</v>
+      </c>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>timeTXT</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Level2_mc</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Level3_mc</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Level4_mc</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E84" s="1" t="str">
-        <f>B84</f>
-        <v>CastMask_mc</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E85" s="1" t="str">
-        <f>B85</f>
-        <v xml:space="preserve">archiveCase  </v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E86" s="1" t="str">
-        <f>B86</f>
-        <v xml:space="preserve">castAirCase   </v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="3" t="s">
-        <v>320</v>
+      <c r="B87" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E87" s="1" t="str">
-        <f>B87</f>
-        <v>castGolemCase</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BonusMoney_mc</v>
+      </c>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="3" t="s">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E88" s="1" t="str">
-        <f>B88</f>
-        <v>castIcemanCase</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="3" t="s">
-        <v>322</v>
+        <v>216</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E89" s="1" t="str">
-        <f>B89</f>
-        <v xml:space="preserve">fireCase   </v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>noteTXT</v>
+      </c>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="3" t="s">
-        <v>323</v>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E90" s="1" t="str">
-        <f>B90</f>
-        <v xml:space="preserve">getAllCase  </v>
-      </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MoneyAdd_mc</v>
+      </c>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="3" t="s">
-        <v>327</v>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E91" s="1" t="str">
-        <f>B91</f>
-        <v xml:space="preserve">iceCase   </v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SavedCastTime_mc</v>
+      </c>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="3" t="s">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E92" s="1" t="str">
-        <f>B92</f>
-        <v xml:space="preserve">interfaceUpCase </v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>cont</v>
+      </c>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="3" t="s">
-        <v>326</v>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E93" s="1" t="str">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G93" s="1" t="str">
         <f>B93</f>
-        <v xml:space="preserve">levinCase   </v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+        <v>CastMask_mc</v>
+      </c>
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E94" s="1" t="str">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G94" s="1" t="str">
         <f>B94</f>
-        <v xml:space="preserve">sellCase  </v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+        <v xml:space="preserve">archiveCase  </v>
+      </c>
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f>B95</f>
+        <v xml:space="preserve">castAirCase   </v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f>B96</f>
+        <v>castGolemCase</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f>B97</f>
+        <v>castIcemanCase</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f>B98</f>
+        <v xml:space="preserve">fireCase   </v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f>B99</f>
+        <v xml:space="preserve">getAllCase  </v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f>B100</f>
+        <v xml:space="preserve">iceCase   </v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f>B101</f>
+        <v xml:space="preserve">interfaceUpCase </v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f>B102</f>
+        <v xml:space="preserve">levinCase   </v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f>B103</f>
+        <v xml:space="preserve">sellCase  </v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E95" s="1" t="str">
-        <f>B95</f>
+      <c r="C104" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G104" s="1" t="str">
+        <f>B104</f>
         <v xml:space="preserve">stoneCase     </v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f t="shared" ref="G105:G171" si="1">B105</f>
+        <v>WorldInterface_mc</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>backComponents</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>barInfo</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fireTXT</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>healthTXT</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>iceTXT</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>levinTXT</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>myTarget</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>noteTXT</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>penaltyTXT</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>speedTXT</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>stoneTXT</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>book</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>bookCase</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>butCastAir</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>castIcemanCase</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cont</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>butCastGolem</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>castIcemanCase</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cont</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>butCastIceman</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>castIcemanCase</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cont</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G131" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyFire</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G132" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyTXT</v>
+      </c>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G133" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>coin</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G134" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lightUp</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G135" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buygetAll</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G136" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyTXT</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G137" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>coin</v>
+      </c>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G138" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lightUp</v>
+      </c>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G139" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyIce</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G140" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyTXT</v>
+      </c>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G141" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>coin</v>
+      </c>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G142" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lightUp</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G143" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyLevin</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G144" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyTXT</v>
+      </c>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G145" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>coin</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G146" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lightUp</v>
+      </c>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G147" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyStone</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G148" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>buyTXT</v>
+      </c>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G149" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>coin</v>
+      </c>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G150" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lightUp</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G151" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fast</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G152" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fastCase</v>
+      </c>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G153" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cont</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G154" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fireBack</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G155" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cont</v>
+      </c>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G156" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fireBacklight</v>
+      </c>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G157" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fireNumTXT</v>
+      </c>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G158" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>firePrice</v>
+      </c>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G159" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fireSphere</v>
+      </c>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G160" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sphereCase</v>
+      </c>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G161" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>getAll</v>
+      </c>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G162" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fire</v>
+      </c>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G163" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ice</v>
+      </c>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G164" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>levin</v>
+      </c>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G165" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sphereCase</v>
+      </c>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G166" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>stone</v>
+      </c>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G167" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>getAllNumTXT</v>
+      </c>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G168" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>iceBack</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G169" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>cont</v>
+      </c>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G170" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>iceBacklight</v>
+      </c>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G171" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>iceNumTXT</v>
+      </c>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G172" s="1" t="str">
+        <f t="shared" ref="G172:G199" si="2">B172</f>
+        <v>iceSphere</v>
+      </c>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>sphereCase</v>
+      </c>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>lastTime</v>
+      </c>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>levinBack</v>
+      </c>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>cont</v>
+      </c>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>levinBacklight</v>
+      </c>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G178" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>levinNumTXT</v>
+      </c>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>levinSphere</v>
+      </c>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>sphereCase</v>
+      </c>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>liveTXT</v>
+      </c>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>moneyTXT</v>
+      </c>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pause</v>
+      </c>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G184" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pauseCase</v>
+      </c>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>selectUnit</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G186" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>sell</v>
+      </c>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>slow</v>
+      </c>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>startWaves</v>
+      </c>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G189" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>startWavesCase</v>
+      </c>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>stoneBack</v>
+      </c>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>cont</v>
+      </c>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>stoneBacklight</v>
+      </c>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G193" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>stoneNumTXT</v>
+      </c>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G194" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>stoneSphere</v>
+      </c>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G195" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>sphereCase</v>
+      </c>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G196" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>testRestart</v>
+      </c>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G197" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>testRestartBoard</v>
+      </c>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G198" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>waveTXT</v>
+      </c>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G199" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>waveTXT</v>
+      </c>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9682,20 +12975,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A16EEB-F50D-42B7-922A-BBDE591E0849}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -9706,36 +13000,2297 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FE5A8B3-DB2E-451C-B9D7-7326FFED67BA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D7BBB9E-53C5-4089-BAB2-8D50B1417FE3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="530">
   <si>
     <t>UnitTeleportOut_mc</t>
   </si>
@@ -1778,6 +1778,13 @@
   </si>
   <si>
     <t>contMask</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>GetAchieve_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1930,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,6 +1969,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1980,15 +1996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3693,7 +3701,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3721,7 +3729,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -3747,7 +3755,7 @@
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -3770,7 +3778,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -3796,7 +3804,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -3822,7 +3830,7 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -3845,7 +3853,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -3871,7 +3879,7 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -3897,7 +3905,7 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -4241,7 +4249,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4269,7 +4277,7 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="19"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -4295,7 +4303,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -4321,7 +4329,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -4347,7 +4355,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -4371,7 +4379,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="21" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4399,7 +4407,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="19"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -4425,7 +4433,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="19"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -4451,7 +4459,7 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="19"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -4477,7 +4485,7 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8230,7 +8238,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="str">
-        <f>B8</f>
+        <f t="shared" ref="G8:G13" si="0">B8</f>
         <v>BulletTower5_1Bang_mc</v>
       </c>
       <c r="H8" s="1"/>
@@ -8250,7 +8258,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="str">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>BulletTower51_1_mc</v>
       </c>
       <c r="H9" s="1"/>
@@ -8270,7 +8278,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>BulletTower51_2_mc</v>
       </c>
       <c r="H10" s="1"/>
@@ -8290,7 +8298,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>BulletTower6_1_mc</v>
       </c>
       <c r="H11" s="1"/>
@@ -8310,7 +8318,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>BulletTower6_2_mc</v>
       </c>
       <c r="H12" s="1"/>
@@ -8330,7 +8338,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>BulletTower61_mc</v>
       </c>
       <c r="H13" s="1"/>
@@ -8560,10 +8568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E73D0-D4B9-457D-8D8A-52FD778FEEDA}">
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104:C199"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C203" sqref="A1:K203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8626,7 +8634,7 @@
         <v>351</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>B2</f>
+        <f t="shared" ref="G2:G33" si="0">B2</f>
         <v>GetSphere_mc</v>
       </c>
       <c r="H2" s="1"/>
@@ -8648,7 +8656,7 @@
         <v>351</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H3" s="1"/>
@@ -8670,7 +8678,7 @@
         <v>351</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>sphere1</v>
       </c>
       <c r="H4" s="1"/>
@@ -8692,7 +8700,7 @@
         <v>351</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>sphere2</v>
       </c>
       <c r="H5" s="1"/>
@@ -8714,7 +8722,7 @@
         <v>351</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>sphere3</v>
       </c>
       <c r="H6" s="1"/>
@@ -8736,7 +8744,7 @@
         <v>351</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>sphere4</v>
       </c>
       <c r="H7" s="1"/>
@@ -8758,7 +8766,7 @@
         <v>351</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>Arrow_mc</v>
       </c>
       <c r="H8" s="1"/>
@@ -8780,7 +8788,7 @@
         <v>351</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>myTower</v>
       </c>
       <c r="H9" s="1"/>
@@ -8802,7 +8810,7 @@
         <v>351</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>GetAll_mc</v>
       </c>
       <c r="H10" s="1"/>
@@ -8824,7 +8832,7 @@
         <v>351</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>numTXT</v>
       </c>
       <c r="H11" s="1"/>
@@ -8846,7 +8854,7 @@
         <v>351</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>cross</v>
       </c>
       <c r="H12" s="1"/>
@@ -8868,7 +8876,7 @@
         <v>351</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>RadiusFire_mc</v>
       </c>
       <c r="H13" s="1"/>
@@ -8890,7 +8898,7 @@
         <v>351</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>B14</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H14" s="1"/>
@@ -8912,7 +8920,7 @@
         <v>351</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>RadiusIce_mc</v>
       </c>
       <c r="H15" s="1"/>
@@ -8934,7 +8942,7 @@
         <v>351</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H16" s="1"/>
@@ -8956,7 +8964,7 @@
         <v>351</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>RadiusStone_mc</v>
       </c>
       <c r="H17" s="1"/>
@@ -8978,7 +8986,7 @@
         <v>351</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H18" s="1"/>
@@ -9000,7 +9008,7 @@
         <v>351</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>RadiusLevin_mc</v>
       </c>
       <c r="H19" s="1"/>
@@ -9022,7 +9030,7 @@
         <v>351</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H20" s="1"/>
@@ -9044,7 +9052,7 @@
         <v>351</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>RadiusGetAll_mc</v>
       </c>
       <c r="H21" s="1"/>
@@ -9066,7 +9074,7 @@
         <v>351</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H22" s="1"/>
@@ -9088,7 +9096,7 @@
         <v>351</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>cont1</v>
       </c>
       <c r="H23" s="1"/>
@@ -9110,7 +9118,7 @@
         <v>351</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>cont2</v>
       </c>
       <c r="H24" s="1"/>
@@ -9132,7 +9140,7 @@
         <v>351</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>cont3</v>
       </c>
       <c r="H25" s="1"/>
@@ -9154,7 +9162,7 @@
         <v>351</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>MoveFire_mc</v>
       </c>
       <c r="H26" s="1"/>
@@ -9176,7 +9184,7 @@
         <v>351</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H27" s="1"/>
@@ -9198,7 +9206,7 @@
         <v>351</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>MoveIce_mc</v>
       </c>
       <c r="H28" s="1"/>
@@ -9220,7 +9228,7 @@
         <v>351</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>B29</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H29" s="1"/>
@@ -9242,7 +9250,7 @@
         <v>351</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>B30</f>
+        <f t="shared" si="0"/>
         <v>MoveLevin_mc</v>
       </c>
       <c r="H30" s="1"/>
@@ -9264,7 +9272,7 @@
         <v>351</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>B31</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H31" s="1"/>
@@ -9286,7 +9294,7 @@
         <v>351</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>B32</f>
+        <f t="shared" si="0"/>
         <v>MoveStone_mc</v>
       </c>
       <c r="H32" s="1"/>
@@ -9308,7 +9316,7 @@
         <v>351</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>B33</f>
+        <f t="shared" si="0"/>
         <v>cont</v>
       </c>
       <c r="H33" s="1"/>
@@ -9330,7 +9338,7 @@
         <v>351</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>B34</f>
+        <f t="shared" ref="G34:G65" si="1">B34</f>
         <v>MoveLevin_mc</v>
       </c>
       <c r="H34" s="1"/>
@@ -9352,7 +9360,7 @@
         <v>351</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>B35</f>
+        <f t="shared" si="1"/>
         <v>cont</v>
       </c>
       <c r="H35" s="1"/>
@@ -9376,7 +9384,7 @@
         <v>351</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>B36</f>
+        <f t="shared" si="1"/>
         <v>CastFire_mc</v>
       </c>
       <c r="H36" s="1"/>
@@ -9398,7 +9406,7 @@
         <v>351</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>B37</f>
+        <f t="shared" si="1"/>
         <v>CastIce_mc</v>
       </c>
       <c r="H37" s="1"/>
@@ -9420,7 +9428,7 @@
         <v>351</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>B38</f>
+        <f t="shared" si="1"/>
         <v>CastStone_mc</v>
       </c>
       <c r="H38" s="1"/>
@@ -9442,7 +9450,7 @@
         <v>351</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>B39</f>
+        <f t="shared" si="1"/>
         <v>CastLevin_mc</v>
       </c>
       <c r="H39" s="1"/>
@@ -9464,7 +9472,7 @@
         <v>351</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>B40</f>
+        <f t="shared" si="1"/>
         <v>CastFireIce_mc</v>
       </c>
       <c r="H40" s="1"/>
@@ -9486,7 +9494,7 @@
         <v>351</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>B41</f>
+        <f t="shared" si="1"/>
         <v>CastFireStone_mc</v>
       </c>
       <c r="H41" s="1"/>
@@ -9508,7 +9516,7 @@
         <v>351</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>B42</f>
+        <f t="shared" si="1"/>
         <v>CastFireLevin_mc</v>
       </c>
       <c r="H42" s="1"/>
@@ -9530,7 +9538,7 @@
         <v>351</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>B43</f>
+        <f t="shared" si="1"/>
         <v>CastIceStone_mc</v>
       </c>
       <c r="H43" s="1"/>
@@ -9552,7 +9560,7 @@
         <v>351</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>B44</f>
+        <f t="shared" si="1"/>
         <v>CastIceLevin_mc</v>
       </c>
       <c r="H44" s="1"/>
@@ -9574,7 +9582,7 @@
         <v>351</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>B45</f>
+        <f t="shared" si="1"/>
         <v>CastStoneLevin_mc</v>
       </c>
       <c r="H45" s="1"/>
@@ -9596,7 +9604,7 @@
         <v>351</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>B46</f>
+        <f t="shared" si="1"/>
         <v>CastGetAllLittle_mc</v>
       </c>
       <c r="H46" s="1"/>
@@ -9618,7 +9626,7 @@
         <v>351</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>B47</f>
+        <f t="shared" si="1"/>
         <v>CastGetAll_mc</v>
       </c>
       <c r="H47" s="1"/>
@@ -9640,7 +9648,7 @@
         <v>351</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>B48</f>
+        <f t="shared" si="1"/>
         <v>haze1</v>
       </c>
       <c r="H48" s="1"/>
@@ -9662,7 +9670,7 @@
         <v>351</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>B49</f>
+        <f t="shared" si="1"/>
         <v>haze2</v>
       </c>
       <c r="H49" s="1"/>
@@ -9684,7 +9692,7 @@
         <v>351</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>B50</f>
+        <f t="shared" si="1"/>
         <v>haze3</v>
       </c>
       <c r="H50" s="1"/>
@@ -9706,7 +9714,7 @@
         <v>351</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>B51</f>
+        <f t="shared" si="1"/>
         <v>haze4</v>
       </c>
       <c r="H51" s="1"/>
@@ -9728,7 +9736,7 @@
         <v>351</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>B52</f>
+        <f t="shared" si="1"/>
         <v>haze5</v>
       </c>
       <c r="H52" s="1"/>
@@ -9750,7 +9758,7 @@
         <v>351</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>B53</f>
+        <f t="shared" si="1"/>
         <v>haze6</v>
       </c>
       <c r="H53" s="1"/>
@@ -9772,7 +9780,7 @@
         <v>351</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>B54</f>
+        <f t="shared" si="1"/>
         <v>haze7</v>
       </c>
       <c r="H54" s="1"/>
@@ -9794,7 +9802,7 @@
         <v>351</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>B55</f>
+        <f t="shared" si="1"/>
         <v>haze8</v>
       </c>
       <c r="H55" s="1"/>
@@ -9816,7 +9824,7 @@
         <v>351</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>B56</f>
+        <f t="shared" si="1"/>
         <v>haze9</v>
       </c>
       <c r="H56" s="1"/>
@@ -9838,7 +9846,7 @@
         <v>351</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>B57</f>
+        <f t="shared" si="1"/>
         <v>CastGetAllSwamp_mc</v>
       </c>
       <c r="H57" s="1"/>
@@ -9860,7 +9868,7 @@
         <v>351</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>B58</f>
+        <f t="shared" si="1"/>
         <v>swamp1</v>
       </c>
       <c r="H58" s="1"/>
@@ -9882,7 +9890,7 @@
         <v>351</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>B59</f>
+        <f t="shared" si="1"/>
         <v>swamp2</v>
       </c>
       <c r="H59" s="1"/>
@@ -9904,7 +9912,7 @@
         <v>351</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>B60</f>
+        <f t="shared" si="1"/>
         <v>swamp3</v>
       </c>
       <c r="H60" s="1"/>
@@ -9926,7 +9934,7 @@
         <v>351</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>B61</f>
+        <f t="shared" si="1"/>
         <v>swamp4</v>
       </c>
       <c r="H61" s="1"/>
@@ -9948,7 +9956,7 @@
         <v>351</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>B62</f>
+        <f t="shared" si="1"/>
         <v>swamp5</v>
       </c>
       <c r="H62" s="1"/>
@@ -9972,7 +9980,7 @@
         <v>351</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>B63</f>
+        <f t="shared" si="1"/>
         <v>Level1_mc</v>
       </c>
       <c r="H63" s="1"/>
@@ -9994,7 +10002,7 @@
         <v>351</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>B64</f>
+        <f t="shared" si="1"/>
         <v>decoration</v>
       </c>
       <c r="H64" s="1"/>
@@ -10016,7 +10024,7 @@
         <v>351</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>B65</f>
+        <f t="shared" si="1"/>
         <v>decoration1</v>
       </c>
       <c r="H65" s="1"/>
@@ -10038,7 +10046,7 @@
         <v>351</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>B66</f>
+        <f t="shared" ref="G66:G80" si="2">B66</f>
         <v>decorationCase</v>
       </c>
       <c r="H66" s="1"/>
@@ -10060,7 +10068,7 @@
         <v>351</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>B67</f>
+        <f t="shared" si="2"/>
         <v>flag1</v>
       </c>
       <c r="H67" s="1"/>
@@ -10082,7 +10090,7 @@
         <v>351</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>B68</f>
+        <f t="shared" si="2"/>
         <v>flag2</v>
       </c>
       <c r="H68" s="1"/>
@@ -10104,7 +10112,7 @@
         <v>351</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>B69</f>
+        <f t="shared" si="2"/>
         <v>place1</v>
       </c>
       <c r="H69" s="1"/>
@@ -10126,7 +10134,7 @@
         <v>351</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>B70</f>
+        <f t="shared" si="2"/>
         <v>place2</v>
       </c>
       <c r="H70" s="1"/>
@@ -10148,7 +10156,7 @@
         <v>351</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>B71</f>
+        <f t="shared" si="2"/>
         <v>place3</v>
       </c>
       <c r="H71" s="1"/>
@@ -10170,7 +10178,7 @@
         <v>351</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>B72</f>
+        <f t="shared" si="2"/>
         <v>place4</v>
       </c>
       <c r="H72" s="1"/>
@@ -10192,7 +10200,7 @@
         <v>351</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>B73</f>
+        <f t="shared" si="2"/>
         <v>place5</v>
       </c>
       <c r="H73" s="1"/>
@@ -10214,7 +10222,7 @@
         <v>351</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>B74</f>
+        <f t="shared" si="2"/>
         <v>pointer1</v>
       </c>
       <c r="H74" s="1"/>
@@ -10224,7 +10232,7 @@
     </row>
     <row r="75" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="15" t="s">
         <v>346</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -10236,7 +10244,7 @@
         <v>140</v>
       </c>
       <c r="G75" s="8" t="str">
-        <f>B75</f>
+        <f t="shared" si="2"/>
         <v>RoadLevel1_mc</v>
       </c>
       <c r="H75" s="8"/>
@@ -10258,7 +10266,7 @@
         <v>351</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>B76</f>
+        <f t="shared" si="2"/>
         <v>RoadsignFire_mc</v>
       </c>
       <c r="H76" s="1"/>
@@ -10280,7 +10288,7 @@
         <v>351</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>B77</f>
+        <f t="shared" si="2"/>
         <v>RoadsignIce_mc</v>
       </c>
       <c r="H77" s="1"/>
@@ -10302,7 +10310,7 @@
         <v>351</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>B78</f>
+        <f t="shared" si="2"/>
         <v>RoadsignStone_mc</v>
       </c>
       <c r="H78" s="1"/>
@@ -10324,7 +10332,7 @@
         <v>351</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>B79</f>
+        <f t="shared" si="2"/>
         <v>RoadsignLevin_mc</v>
       </c>
       <c r="H79" s="1"/>
@@ -10346,7 +10354,7 @@
         <v>351</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>B80</f>
+        <f t="shared" si="2"/>
         <v>Hint_mc</v>
       </c>
       <c r="H80" s="1"/>
@@ -10368,7 +10376,7 @@
         <v>137</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" ref="G81:G92" si="0">B81</f>
+        <f t="shared" ref="G81:G92" si="3">B81</f>
         <v>nameTXT</v>
       </c>
       <c r="H81" s="1"/>
@@ -10390,7 +10398,7 @@
         <v>137</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>noteTXT</v>
       </c>
       <c r="H82" s="1"/>
@@ -10412,7 +10420,7 @@
         <v>137</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>timeTXT</v>
       </c>
       <c r="H83" s="1"/>
@@ -10434,7 +10442,7 @@
         <v>140</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Level2_mc</v>
       </c>
       <c r="H84" s="1"/>
@@ -10456,7 +10464,7 @@
         <v>140</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Level3_mc</v>
       </c>
       <c r="H85" s="1"/>
@@ -10478,7 +10486,7 @@
         <v>140</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Level4_mc</v>
       </c>
       <c r="H86" s="1"/>
@@ -10502,7 +10510,7 @@
         <v>140</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>BonusMoney_mc</v>
       </c>
       <c r="H87" s="1"/>
@@ -10524,7 +10532,7 @@
         <v>140</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>cont</v>
       </c>
       <c r="H88" s="1"/>
@@ -10546,7 +10554,7 @@
         <v>137</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>noteTXT</v>
       </c>
       <c r="H89" s="1"/>
@@ -10570,7 +10578,7 @@
         <v>140</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>MoneyAdd_mc</v>
       </c>
       <c r="H90" s="1"/>
@@ -10594,7 +10602,7 @@
         <v>140</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>SavedCastTime_mc</v>
       </c>
       <c r="H91" s="1"/>
@@ -10616,7 +10624,7 @@
         <v>140</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>cont</v>
       </c>
       <c r="H92" s="1"/>
@@ -10640,7 +10648,7 @@
         <v>351</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>B93</f>
+        <f t="shared" ref="G93:G104" si="4">B93</f>
         <v>CastMask_mc</v>
       </c>
       <c r="H93" s="1"/>
@@ -10662,7 +10670,7 @@
         <v>351</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>B94</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">archiveCase  </v>
       </c>
       <c r="H94" s="1"/>
@@ -10684,7 +10692,7 @@
         <v>351</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>B95</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">castAirCase   </v>
       </c>
       <c r="H95" s="1"/>
@@ -10706,7 +10714,7 @@
         <v>351</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>B96</f>
+        <f t="shared" si="4"/>
         <v>castGolemCase</v>
       </c>
       <c r="H96" s="1"/>
@@ -10728,7 +10736,7 @@
         <v>351</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>B97</f>
+        <f t="shared" si="4"/>
         <v>castIcemanCase</v>
       </c>
       <c r="H97" s="1"/>
@@ -10750,7 +10758,7 @@
         <v>351</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>B98</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">fireCase   </v>
       </c>
       <c r="H98" s="1"/>
@@ -10772,7 +10780,7 @@
         <v>351</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>B99</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">getAllCase  </v>
       </c>
       <c r="H99" s="1"/>
@@ -10794,7 +10802,7 @@
         <v>351</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>B100</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">iceCase   </v>
       </c>
       <c r="H100" s="1"/>
@@ -10816,7 +10824,7 @@
         <v>351</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>B101</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">interfaceUpCase </v>
       </c>
       <c r="H101" s="1"/>
@@ -10838,7 +10846,7 @@
         <v>351</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>B102</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">levinCase   </v>
       </c>
       <c r="H102" s="1"/>
@@ -10860,7 +10868,7 @@
         <v>351</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>B103</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">sellCase  </v>
       </c>
       <c r="H103" s="1"/>
@@ -10882,7 +10890,7 @@
         <v>351</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>B104</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">stoneCase     </v>
       </c>
       <c r="H104" s="1"/>
@@ -10906,7 +10914,7 @@
         <v>140</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f t="shared" ref="G105:G171" si="1">B105</f>
+        <f t="shared" ref="G105:G171" si="5">B105</f>
         <v>WorldInterface_mc</v>
       </c>
       <c r="H105" s="1"/>
@@ -10928,7 +10936,7 @@
         <v>140</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>backComponents</v>
       </c>
       <c r="H106" s="1"/>
@@ -10950,7 +10958,7 @@
         <v>140</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>barInfo</v>
       </c>
       <c r="H107" s="1"/>
@@ -10972,7 +10980,7 @@
         <v>137</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fireTXT</v>
       </c>
       <c r="H108" s="1"/>
@@ -10994,7 +11002,7 @@
         <v>137</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>healthTXT</v>
       </c>
       <c r="H109" s="1"/>
@@ -11016,7 +11024,7 @@
         <v>137</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>iceTXT</v>
       </c>
       <c r="H110" s="1"/>
@@ -11038,7 +11046,7 @@
         <v>137</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>levinTXT</v>
       </c>
       <c r="H111" s="1"/>
@@ -11048,7 +11056,7 @@
     </row>
     <row r="112" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="17" t="s">
         <v>478</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -11060,7 +11068,7 @@
         <v>140</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>myTarget</v>
       </c>
       <c r="H112" s="8"/>
@@ -11082,7 +11090,7 @@
         <v>137</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>noteTXT</v>
       </c>
       <c r="H113" s="1"/>
@@ -11104,7 +11112,7 @@
         <v>137</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>penaltyTXT</v>
       </c>
       <c r="H114" s="1"/>
@@ -11126,7 +11134,7 @@
         <v>137</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>speedTXT</v>
       </c>
       <c r="H115" s="1"/>
@@ -11148,7 +11156,7 @@
         <v>137</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>stoneTXT</v>
       </c>
       <c r="H116" s="1"/>
@@ -11170,7 +11178,7 @@
         <v>140</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>book</v>
       </c>
       <c r="H117" s="1"/>
@@ -11192,7 +11200,7 @@
         <v>140</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>bookCase</v>
       </c>
       <c r="H118" s="1"/>
@@ -11214,7 +11222,7 @@
         <v>140</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>butCastAir</v>
       </c>
       <c r="H119" s="1"/>
@@ -11236,7 +11244,7 @@
         <v>140</v>
       </c>
       <c r="G120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>castIcemanCase</v>
       </c>
       <c r="H120" s="1"/>
@@ -11258,7 +11266,7 @@
         <v>140</v>
       </c>
       <c r="G121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>cont</v>
       </c>
       <c r="H121" s="1"/>
@@ -11297,7 +11305,7 @@
         <v>140</v>
       </c>
       <c r="G123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>butCastGolem</v>
       </c>
       <c r="H123" s="1"/>
@@ -11319,7 +11327,7 @@
         <v>140</v>
       </c>
       <c r="G124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>castIcemanCase</v>
       </c>
       <c r="H124" s="1"/>
@@ -11341,7 +11349,7 @@
         <v>140</v>
       </c>
       <c r="G125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>cont</v>
       </c>
       <c r="H125" s="1"/>
@@ -11380,7 +11388,7 @@
         <v>140</v>
       </c>
       <c r="G127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>butCastIceman</v>
       </c>
       <c r="H127" s="1"/>
@@ -11402,7 +11410,7 @@
         <v>140</v>
       </c>
       <c r="G128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>castIcemanCase</v>
       </c>
       <c r="H128" s="1"/>
@@ -11424,7 +11432,7 @@
         <v>140</v>
       </c>
       <c r="G129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>cont</v>
       </c>
       <c r="H129" s="1"/>
@@ -11463,7 +11471,7 @@
         <v>140</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyFire</v>
       </c>
       <c r="H131" s="1"/>
@@ -11485,7 +11493,7 @@
         <v>137</v>
       </c>
       <c r="G132" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyTXT</v>
       </c>
       <c r="H132" s="1"/>
@@ -11507,7 +11515,7 @@
         <v>140</v>
       </c>
       <c r="G133" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>coin</v>
       </c>
       <c r="H133" s="1"/>
@@ -11529,7 +11537,7 @@
         <v>140</v>
       </c>
       <c r="G134" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>lightUp</v>
       </c>
       <c r="H134" s="1"/>
@@ -11551,7 +11559,7 @@
         <v>140</v>
       </c>
       <c r="G135" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buygetAll</v>
       </c>
       <c r="H135" s="1"/>
@@ -11573,7 +11581,7 @@
         <v>137</v>
       </c>
       <c r="G136" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyTXT</v>
       </c>
       <c r="H136" s="1"/>
@@ -11595,7 +11603,7 @@
         <v>140</v>
       </c>
       <c r="G137" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>coin</v>
       </c>
       <c r="H137" s="1"/>
@@ -11617,7 +11625,7 @@
         <v>140</v>
       </c>
       <c r="G138" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>lightUp</v>
       </c>
       <c r="H138" s="1"/>
@@ -11639,7 +11647,7 @@
         <v>140</v>
       </c>
       <c r="G139" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyIce</v>
       </c>
       <c r="H139" s="1"/>
@@ -11661,7 +11669,7 @@
         <v>140</v>
       </c>
       <c r="G140" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyTXT</v>
       </c>
       <c r="H140" s="1"/>
@@ -11683,7 +11691,7 @@
         <v>140</v>
       </c>
       <c r="G141" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>coin</v>
       </c>
       <c r="H141" s="1"/>
@@ -11705,7 +11713,7 @@
         <v>140</v>
       </c>
       <c r="G142" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>lightUp</v>
       </c>
       <c r="H142" s="1"/>
@@ -11727,7 +11735,7 @@
         <v>140</v>
       </c>
       <c r="G143" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyLevin</v>
       </c>
       <c r="H143" s="1"/>
@@ -11749,7 +11757,7 @@
         <v>137</v>
       </c>
       <c r="G144" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyTXT</v>
       </c>
       <c r="H144" s="1"/>
@@ -11771,7 +11779,7 @@
         <v>140</v>
       </c>
       <c r="G145" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>coin</v>
       </c>
       <c r="H145" s="1"/>
@@ -11793,7 +11801,7 @@
         <v>140</v>
       </c>
       <c r="G146" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>lightUp</v>
       </c>
       <c r="H146" s="1"/>
@@ -11815,7 +11823,7 @@
         <v>140</v>
       </c>
       <c r="G147" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyStone</v>
       </c>
       <c r="H147" s="1"/>
@@ -11837,7 +11845,7 @@
         <v>137</v>
       </c>
       <c r="G148" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>buyTXT</v>
       </c>
       <c r="H148" s="1"/>
@@ -11859,7 +11867,7 @@
         <v>140</v>
       </c>
       <c r="G149" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>coin</v>
       </c>
       <c r="H149" s="1"/>
@@ -11881,7 +11889,7 @@
         <v>140</v>
       </c>
       <c r="G150" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>lightUp</v>
       </c>
       <c r="H150" s="1"/>
@@ -11903,7 +11911,7 @@
         <v>140</v>
       </c>
       <c r="G151" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fast</v>
       </c>
       <c r="H151" s="1"/>
@@ -11925,7 +11933,7 @@
         <v>140</v>
       </c>
       <c r="G152" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fastCase</v>
       </c>
       <c r="H152" s="1"/>
@@ -11947,7 +11955,7 @@
         <v>140</v>
       </c>
       <c r="G153" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>cont</v>
       </c>
       <c r="H153" s="1"/>
@@ -11969,7 +11977,7 @@
         <v>140</v>
       </c>
       <c r="G154" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fireBack</v>
       </c>
       <c r="H154" s="1"/>
@@ -11991,7 +11999,7 @@
         <v>140</v>
       </c>
       <c r="G155" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>cont</v>
       </c>
       <c r="H155" s="1"/>
@@ -12013,7 +12021,7 @@
         <v>140</v>
       </c>
       <c r="G156" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fireBacklight</v>
       </c>
       <c r="H156" s="1"/>
@@ -12035,7 +12043,7 @@
         <v>137</v>
       </c>
       <c r="G157" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fireNumTXT</v>
       </c>
       <c r="H157" s="1"/>
@@ -12057,7 +12065,7 @@
         <v>140</v>
       </c>
       <c r="G158" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>firePrice</v>
       </c>
       <c r="H158" s="1"/>
@@ -12079,7 +12087,7 @@
         <v>140</v>
       </c>
       <c r="G159" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fireSphere</v>
       </c>
       <c r="H159" s="1"/>
@@ -12101,7 +12109,7 @@
         <v>140</v>
       </c>
       <c r="G160" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>sphereCase</v>
       </c>
       <c r="H160" s="1"/>
@@ -12123,7 +12131,7 @@
         <v>140</v>
       </c>
       <c r="G161" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>getAll</v>
       </c>
       <c r="H161" s="1"/>
@@ -12145,7 +12153,7 @@
         <v>140</v>
       </c>
       <c r="G162" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>fire</v>
       </c>
       <c r="H162" s="1"/>
@@ -12167,7 +12175,7 @@
         <v>140</v>
       </c>
       <c r="G163" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>ice</v>
       </c>
       <c r="H163" s="1"/>
@@ -12189,7 +12197,7 @@
         <v>140</v>
       </c>
       <c r="G164" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>levin</v>
       </c>
       <c r="H164" s="1"/>
@@ -12211,7 +12219,7 @@
         <v>140</v>
       </c>
       <c r="G165" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>sphereCase</v>
       </c>
       <c r="H165" s="1"/>
@@ -12233,7 +12241,7 @@
         <v>140</v>
       </c>
       <c r="G166" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>stone</v>
       </c>
       <c r="H166" s="1"/>
@@ -12255,7 +12263,7 @@
         <v>137</v>
       </c>
       <c r="G167" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>getAllNumTXT</v>
       </c>
       <c r="H167" s="1"/>
@@ -12277,7 +12285,7 @@
         <v>140</v>
       </c>
       <c r="G168" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>iceBack</v>
       </c>
       <c r="H168" s="1"/>
@@ -12299,7 +12307,7 @@
         <v>140</v>
       </c>
       <c r="G169" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>cont</v>
       </c>
       <c r="H169" s="1"/>
@@ -12321,7 +12329,7 @@
         <v>140</v>
       </c>
       <c r="G170" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>iceBacklight</v>
       </c>
       <c r="H170" s="1"/>
@@ -12343,7 +12351,7 @@
         <v>137</v>
       </c>
       <c r="G171" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>iceNumTXT</v>
       </c>
       <c r="H171" s="1"/>
@@ -12365,7 +12373,7 @@
         <v>140</v>
       </c>
       <c r="G172" s="1" t="str">
-        <f t="shared" ref="G172:G199" si="2">B172</f>
+        <f t="shared" ref="G172:G199" si="6">B172</f>
         <v>iceSphere</v>
       </c>
       <c r="H172" s="1"/>
@@ -12387,7 +12395,7 @@
         <v>140</v>
       </c>
       <c r="G173" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sphereCase</v>
       </c>
       <c r="H173" s="1"/>
@@ -12409,7 +12417,7 @@
         <v>137</v>
       </c>
       <c r="G174" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>lastTime</v>
       </c>
       <c r="H174" s="1"/>
@@ -12431,7 +12439,7 @@
         <v>140</v>
       </c>
       <c r="G175" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>levinBack</v>
       </c>
       <c r="H175" s="1"/>
@@ -12453,7 +12461,7 @@
         <v>140</v>
       </c>
       <c r="G176" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>cont</v>
       </c>
       <c r="H176" s="1"/>
@@ -12475,7 +12483,7 @@
         <v>140</v>
       </c>
       <c r="G177" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>levinBacklight</v>
       </c>
       <c r="H177" s="1"/>
@@ -12497,7 +12505,7 @@
         <v>137</v>
       </c>
       <c r="G178" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>levinNumTXT</v>
       </c>
       <c r="H178" s="1"/>
@@ -12519,7 +12527,7 @@
         <v>140</v>
       </c>
       <c r="G179" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>levinSphere</v>
       </c>
       <c r="H179" s="1"/>
@@ -12541,7 +12549,7 @@
         <v>140</v>
       </c>
       <c r="G180" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sphereCase</v>
       </c>
       <c r="H180" s="1"/>
@@ -12563,7 +12571,7 @@
         <v>137</v>
       </c>
       <c r="G181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>liveTXT</v>
       </c>
       <c r="H181" s="1"/>
@@ -12585,7 +12593,7 @@
         <v>137</v>
       </c>
       <c r="G182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>moneyTXT</v>
       </c>
       <c r="H182" s="1"/>
@@ -12607,7 +12615,7 @@
         <v>392</v>
       </c>
       <c r="G183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>pause</v>
       </c>
       <c r="H183" s="1"/>
@@ -12629,7 +12637,7 @@
         <v>392</v>
       </c>
       <c r="G184" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>pauseCase</v>
       </c>
       <c r="H184" s="1"/>
@@ -12651,7 +12659,7 @@
         <v>392</v>
       </c>
       <c r="G185" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>selectUnit</v>
       </c>
       <c r="H185" s="1"/>
@@ -12673,7 +12681,7 @@
         <v>392</v>
       </c>
       <c r="G186" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sell</v>
       </c>
       <c r="H186" s="1"/>
@@ -12695,7 +12703,7 @@
         <v>392</v>
       </c>
       <c r="G187" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>slow</v>
       </c>
       <c r="H187" s="1"/>
@@ -12717,7 +12725,7 @@
         <v>392</v>
       </c>
       <c r="G188" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>startWaves</v>
       </c>
       <c r="H188" s="1"/>
@@ -12739,7 +12747,7 @@
         <v>392</v>
       </c>
       <c r="G189" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>startWavesCase</v>
       </c>
       <c r="H189" s="1"/>
@@ -12761,7 +12769,7 @@
         <v>392</v>
       </c>
       <c r="G190" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>stoneBack</v>
       </c>
       <c r="H190" s="1"/>
@@ -12783,7 +12791,7 @@
         <v>392</v>
       </c>
       <c r="G191" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>cont</v>
       </c>
       <c r="H191" s="1"/>
@@ -12805,7 +12813,7 @@
         <v>392</v>
       </c>
       <c r="G192" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>stoneBacklight</v>
       </c>
       <c r="H192" s="1"/>
@@ -12827,7 +12835,7 @@
         <v>137</v>
       </c>
       <c r="G193" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>stoneNumTXT</v>
       </c>
       <c r="H193" s="1"/>
@@ -12849,7 +12857,7 @@
         <v>392</v>
       </c>
       <c r="G194" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>stoneSphere</v>
       </c>
       <c r="H194" s="1"/>
@@ -12871,7 +12879,7 @@
         <v>392</v>
       </c>
       <c r="G195" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>sphereCase</v>
       </c>
       <c r="H195" s="1"/>
@@ -12893,7 +12901,7 @@
         <v>392</v>
       </c>
       <c r="G196" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>testRestart</v>
       </c>
       <c r="H196" s="1"/>
@@ -12915,7 +12923,7 @@
         <v>392</v>
       </c>
       <c r="G197" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>testRestartBoard</v>
       </c>
       <c r="H197" s="1"/>
@@ -12937,7 +12945,7 @@
         <v>137</v>
       </c>
       <c r="G198" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>waveTXT</v>
       </c>
       <c r="H198" s="1"/>
@@ -12959,13 +12967,92 @@
         <v>137</v>
       </c>
       <c r="G199" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>waveTXT</v>
       </c>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15191,7 +15278,7 @@
       <c r="A105" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="16" t="s">
         <v>468</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -15233,7 +15320,7 @@
       <c r="A107" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="16" t="s">
         <v>469</v>
       </c>
       <c r="C107" s="1" t="s">

--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D7BBB9E-53C5-4089-BAB2-8D50B1417FE3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CE0545F-ED99-4114-ADC1-D2D6A0CCFACB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="680">
   <si>
     <t>UnitTeleportOut_mc</t>
   </si>
@@ -1784,6 +1784,511 @@
   </si>
   <si>
     <t>GetAchieve_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>DefMenu_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefMenu.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnContinue</t>
+  </si>
+  <si>
+    <t>continueCase</t>
+  </si>
+  <si>
+    <t>restartCase</t>
+  </si>
+  <si>
+    <t>Achievements_mc</t>
+  </si>
+  <si>
+    <t>Achievements.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve1</t>
+  </si>
+  <si>
+    <t>achieve2</t>
+  </si>
+  <si>
+    <t>achieve3</t>
+  </si>
+  <si>
+    <t>achieve4</t>
+  </si>
+  <si>
+    <t>achieve5</t>
+  </si>
+  <si>
+    <t>achieve6</t>
+  </si>
+  <si>
+    <t>achieve7</t>
+  </si>
+  <si>
+    <t>achieve8</t>
+  </si>
+  <si>
+    <t>achieve9</t>
+  </si>
+  <si>
+    <t>achieve10</t>
+  </si>
+  <si>
+    <t>btnBack</t>
+  </si>
+  <si>
+    <t>arrowCase</t>
+  </si>
+  <si>
+    <t>btnForward</t>
+  </si>
+  <si>
+    <t>btnClose</t>
+  </si>
+  <si>
+    <t>closeCase</t>
+  </si>
+  <si>
+    <t>fire1</t>
+  </si>
+  <si>
+    <t>fire2</t>
+  </si>
+  <si>
+    <t>fire3</t>
+  </si>
+  <si>
+    <t>fire4</t>
+  </si>
+  <si>
+    <t>fire5</t>
+  </si>
+  <si>
+    <t>fire1Case</t>
+  </si>
+  <si>
+    <t>fire2Case</t>
+  </si>
+  <si>
+    <t>fire3Case</t>
+  </si>
+  <si>
+    <t>fire4Case</t>
+  </si>
+  <si>
+    <t>fire5Case</t>
+  </si>
+  <si>
+    <t>fire6Case</t>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credits_mc</t>
+  </si>
+  <si>
+    <t>Credits.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoCont</t>
+  </si>
+  <si>
+    <t>noteCont</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>btnOk</t>
+  </si>
+  <si>
+    <t>okCase</t>
+  </si>
+  <si>
+    <t>logoContCase</t>
+  </si>
+  <si>
+    <t>noteContCase</t>
+  </si>
+  <si>
+    <t>facebookCase</t>
+  </si>
+  <si>
+    <t>twitterCase</t>
+  </si>
+  <si>
+    <t>StartMenu_mc</t>
+  </si>
+  <si>
+    <t>StartMenu.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>game1</t>
+  </si>
+  <si>
+    <t>game2</t>
+  </si>
+  <si>
+    <t>game3</t>
+  </si>
+  <si>
+    <t>glitter</t>
+  </si>
+  <si>
+    <t>logOut</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>saveType</t>
+  </si>
+  <si>
+    <t>btnIdnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idnetCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localSave</t>
+  </si>
+  <si>
+    <t>onlineSave</t>
+  </si>
+  <si>
+    <t>localSaveCase</t>
+  </si>
+  <si>
+    <t>onlineSaveCase</t>
+  </si>
+  <si>
+    <t>newGame1Case</t>
+  </si>
+  <si>
+    <t>game1Case</t>
+  </si>
+  <si>
+    <t>syncSlot</t>
+  </si>
+  <si>
+    <t>syncSlotCase</t>
+  </si>
+  <si>
+    <t>deleteSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteSlotCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newGame2Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game2Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newGame3Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game3Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startCase</t>
+  </si>
+  <si>
+    <t>Upgrades_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrades.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnReset</t>
+  </si>
+  <si>
+    <t>btnAccept</t>
+  </si>
+  <si>
+    <t>golemArrow1</t>
+  </si>
+  <si>
+    <t>golemArrow2</t>
+  </si>
+  <si>
+    <t>golemArrow3</t>
+  </si>
+  <si>
+    <t>golemArrow4</t>
+  </si>
+  <si>
+    <t>icemanArrow1</t>
+  </si>
+  <si>
+    <t>icemanArrow2</t>
+  </si>
+  <si>
+    <t>icemanArrow3</t>
+  </si>
+  <si>
+    <t>icemanArrow4</t>
+  </si>
+  <si>
+    <t>airArrow1</t>
+  </si>
+  <si>
+    <t>airArrow2</t>
+  </si>
+  <si>
+    <t>airArrow3</t>
+  </si>
+  <si>
+    <t>airArrow4</t>
+  </si>
+  <si>
+    <t>fireArrow1</t>
+  </si>
+  <si>
+    <t>fireArrow2</t>
+  </si>
+  <si>
+    <t>fireArrow3</t>
+  </si>
+  <si>
+    <t>fireArrow4</t>
+  </si>
+  <si>
+    <t>iceArrow1</t>
+  </si>
+  <si>
+    <t>iceArrow2</t>
+  </si>
+  <si>
+    <t>iceArrow3</t>
+  </si>
+  <si>
+    <t>iceArrow4</t>
+  </si>
+  <si>
+    <t>stoneArrow1</t>
+  </si>
+  <si>
+    <t>stoneArrow2</t>
+  </si>
+  <si>
+    <t>stoneArrow3</t>
+  </si>
+  <si>
+    <t>stoneArrow4</t>
+  </si>
+  <si>
+    <t>levinArrow1</t>
+  </si>
+  <si>
+    <t>levinArrow2</t>
+  </si>
+  <si>
+    <t>levinArrow3</t>
+  </si>
+  <si>
+    <t>levinArrow4</t>
+  </si>
+  <si>
+    <t>resetCase</t>
+  </si>
+  <si>
+    <t>acceptCase</t>
+  </si>
+  <si>
+    <t>HintUpgrade_mc</t>
+  </si>
+  <si>
+    <t>golemUpgrade1</t>
+  </si>
+  <si>
+    <t>starsTXT</t>
+  </si>
+  <si>
+    <t>golemUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golemUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golemUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golemUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1816,7 +2321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1838,6 +2343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,7 +2448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,6 +2489,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1996,7 +2508,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2279,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -3701,7 +4229,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3729,7 +4257,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="19"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -3755,7 +4283,7 @@
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="19"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -3778,7 +4306,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -3804,7 +4332,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -3830,7 +4358,7 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -3853,7 +4381,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -3879,7 +4407,7 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -3905,7 +4433,7 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -4249,7 +4777,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="22" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4277,7 +4805,7 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -4303,7 +4831,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -4329,7 +4857,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -4355,7 +4883,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="23"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -4379,7 +4907,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="22" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4407,7 +4935,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -4433,7 +4961,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="22"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -4459,7 +4987,7 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="22"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -4485,7 +5013,7 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="23"/>
+      <c r="K33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8570,8 +9098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E73D0-D4B9-457D-8D8A-52FD778FEEDA}">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C203" sqref="A1:K203"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13052,7 +13580,7 @@
       <c r="K203" s="1"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
+      <c r="A204" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13062,15 +13590,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A16EEB-F50D-42B7-922A-BBDE591E0849}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K389"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -15379,8 +15907,2985 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="B181" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="28"/>
+    </row>
+    <row r="182" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="28"/>
+      <c r="B182" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="28"/>
+    </row>
+    <row r="183" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="28"/>
+      <c r="B183" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="28"/>
+    </row>
+    <row r="184" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="28"/>
+      <c r="B184" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="28"/>
+    </row>
+    <row r="185" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="28"/>
+      <c r="B185" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
+    </row>
+    <row r="186" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="28"/>
+      <c r="B186" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="28"/>
+    </row>
+    <row r="187" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="28"/>
+      <c r="B187" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="28"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="28"/>
+    </row>
+    <row r="188" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="28"/>
+      <c r="B188" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="28"/>
+    </row>
+    <row r="189" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="28"/>
+      <c r="B189" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="28"/>
+    </row>
+    <row r="190" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="28"/>
+      <c r="B190" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+    </row>
+    <row r="191" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="28"/>
+      <c r="B191" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="28"/>
+    </row>
+    <row r="192" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="28"/>
+      <c r="B192" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
+    </row>
+    <row r="193" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="28"/>
+      <c r="B193" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+    </row>
+    <row r="219" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+    </row>
+    <row r="223" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>608</v>
+      </c>
+      <c r="B246" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="27" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="27" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="26" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B273" s="26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B274" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B275" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B278" s="26" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B279" s="26" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B280" s="26" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B281" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B282" s="26" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B283" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B284" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B285" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B286" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B287" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B288" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B289" s="26" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B290" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B291" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B292" s="26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B293" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B294" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B295" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B296" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B297" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B298" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B299" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B300" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B301" s="26" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B302" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B303" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B304" s="26" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B305" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B306" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B307" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B308" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B309" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B310" s="26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B311" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B312" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B313" s="26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B314" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B315" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B316" s="26" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B317" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B318" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B319" s="26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B320" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B321" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B322" s="26" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B323" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B324" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B325" s="26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B326" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B327" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B328" s="26" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B329" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B330" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B331" s="26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B332" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B333" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B334" s="26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B335" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B336" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B337" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B338" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B339" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B340" s="26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B341" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B342" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B343" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B344" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B345" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B346" s="26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B347" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B348" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B349" s="26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B350" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B351" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B352" s="26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B353" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B354" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B355" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B356" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B357" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B358" s="26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B359" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B360" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B361" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B362" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B363" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B364" s="26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B365" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B366" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B367" s="26" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B368" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B369" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B370" s="26" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B371" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B372" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B373" s="26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B374" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B375" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B376" s="26" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B377" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B378" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B379" s="26" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B380" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B381" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B382" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B383" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B384" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B385" s="26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B386" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B387" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B388" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B389" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/mc.xlsx
+++ b/Resources/mc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CE0545F-ED99-4114-ADC1-D2D6A0CCFACB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB13409D-09D8-49A3-B9F2-8090B1C899C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -1768,527 +1768,529 @@
     <t>stoneNumTXT</t>
   </si>
   <si>
+    <t>waveTXT</t>
+  </si>
+  <si>
+    <t>contMask</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>GetAchieve_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>DefMenu_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefMenu.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnContinue</t>
+  </si>
+  <si>
+    <t>continueCase</t>
+  </si>
+  <si>
+    <t>restartCase</t>
+  </si>
+  <si>
+    <t>Achievements_mc</t>
+  </si>
+  <si>
+    <t>Achievements.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve1</t>
+  </si>
+  <si>
+    <t>achieve2</t>
+  </si>
+  <si>
+    <t>achieve3</t>
+  </si>
+  <si>
+    <t>achieve4</t>
+  </si>
+  <si>
+    <t>achieve5</t>
+  </si>
+  <si>
+    <t>achieve6</t>
+  </si>
+  <si>
+    <t>achieve7</t>
+  </si>
+  <si>
+    <t>achieve8</t>
+  </si>
+  <si>
+    <t>achieve9</t>
+  </si>
+  <si>
+    <t>achieve10</t>
+  </si>
+  <si>
+    <t>btnBack</t>
+  </si>
+  <si>
+    <t>arrowCase</t>
+  </si>
+  <si>
+    <t>btnForward</t>
+  </si>
+  <si>
+    <t>btnClose</t>
+  </si>
+  <si>
+    <t>closeCase</t>
+  </si>
+  <si>
+    <t>fire1</t>
+  </si>
+  <si>
+    <t>fire2</t>
+  </si>
+  <si>
+    <t>fire3</t>
+  </si>
+  <si>
+    <t>fire4</t>
+  </si>
+  <si>
+    <t>fire5</t>
+  </si>
+  <si>
+    <t>fire1Case</t>
+  </si>
+  <si>
+    <t>fire2Case</t>
+  </si>
+  <si>
+    <t>fire3Case</t>
+  </si>
+  <si>
+    <t>fire4Case</t>
+  </si>
+  <si>
+    <t>fire5Case</t>
+  </si>
+  <si>
+    <t>fire6Case</t>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credits_mc</t>
+  </si>
+  <si>
+    <t>Credits.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoCont</t>
+  </si>
+  <si>
+    <t>noteCont</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>btnOk</t>
+  </si>
+  <si>
+    <t>okCase</t>
+  </si>
+  <si>
+    <t>logoContCase</t>
+  </si>
+  <si>
+    <t>noteContCase</t>
+  </si>
+  <si>
+    <t>facebookCase</t>
+  </si>
+  <si>
+    <t>twitterCase</t>
+  </si>
+  <si>
+    <t>StartMenu_mc</t>
+  </si>
+  <si>
+    <t>StartMenu.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>game1</t>
+  </si>
+  <si>
+    <t>game2</t>
+  </si>
+  <si>
+    <t>game3</t>
+  </si>
+  <si>
+    <t>glitter</t>
+  </si>
+  <si>
+    <t>logOut</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>saveType</t>
+  </si>
+  <si>
+    <t>btnIdnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idnetCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localSave</t>
+  </si>
+  <si>
+    <t>onlineSave</t>
+  </si>
+  <si>
+    <t>localSaveCase</t>
+  </si>
+  <si>
+    <t>onlineSaveCase</t>
+  </si>
+  <si>
+    <t>newGame1Case</t>
+  </si>
+  <si>
+    <t>game1Case</t>
+  </si>
+  <si>
+    <t>syncSlot</t>
+  </si>
+  <si>
+    <t>syncSlotCase</t>
+  </si>
+  <si>
+    <t>deleteSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteSlotCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newGame2Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game2Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newGame3Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game3Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startCase</t>
+  </si>
+  <si>
+    <t>Upgrades_mc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrades.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnReset</t>
+  </si>
+  <si>
+    <t>btnAccept</t>
+  </si>
+  <si>
+    <t>golemArrow1</t>
+  </si>
+  <si>
+    <t>golemArrow2</t>
+  </si>
+  <si>
+    <t>golemArrow3</t>
+  </si>
+  <si>
+    <t>golemArrow4</t>
+  </si>
+  <si>
+    <t>icemanArrow1</t>
+  </si>
+  <si>
+    <t>icemanArrow2</t>
+  </si>
+  <si>
+    <t>icemanArrow3</t>
+  </si>
+  <si>
+    <t>icemanArrow4</t>
+  </si>
+  <si>
+    <t>airArrow1</t>
+  </si>
+  <si>
+    <t>airArrow2</t>
+  </si>
+  <si>
+    <t>airArrow3</t>
+  </si>
+  <si>
+    <t>airArrow4</t>
+  </si>
+  <si>
+    <t>fireArrow1</t>
+  </si>
+  <si>
+    <t>fireArrow2</t>
+  </si>
+  <si>
+    <t>fireArrow3</t>
+  </si>
+  <si>
+    <t>fireArrow4</t>
+  </si>
+  <si>
+    <t>iceArrow1</t>
+  </si>
+  <si>
+    <t>iceArrow2</t>
+  </si>
+  <si>
+    <t>iceArrow3</t>
+  </si>
+  <si>
+    <t>iceArrow4</t>
+  </si>
+  <si>
+    <t>stoneArrow1</t>
+  </si>
+  <si>
+    <t>stoneArrow2</t>
+  </si>
+  <si>
+    <t>stoneArrow3</t>
+  </si>
+  <si>
+    <t>stoneArrow4</t>
+  </si>
+  <si>
+    <t>levinArrow1</t>
+  </si>
+  <si>
+    <t>levinArrow2</t>
+  </si>
+  <si>
+    <t>levinArrow3</t>
+  </si>
+  <si>
+    <t>levinArrow4</t>
+  </si>
+  <si>
+    <t>resetCase</t>
+  </si>
+  <si>
+    <t>acceptCase</t>
+  </si>
+  <si>
+    <t>HintUpgrade_mc</t>
+  </si>
+  <si>
+    <t>golemUpgrade1</t>
+  </si>
+  <si>
+    <t>starsTXT</t>
+  </si>
+  <si>
+    <t>golemUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golemUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golemUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golemUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icemanUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsTXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levinUpgrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRestartBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>testRestart</t>
-  </si>
-  <si>
-    <t>testRestartBoard</t>
-  </si>
-  <si>
-    <t>waveTXT</t>
-  </si>
-  <si>
-    <t>contMask</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>GetAchieve_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>DefMenu_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefMenu.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btnContinue</t>
-  </si>
-  <si>
-    <t>continueCase</t>
-  </si>
-  <si>
-    <t>restartCase</t>
-  </si>
-  <si>
-    <t>Achievements_mc</t>
-  </si>
-  <si>
-    <t>Achievements.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve1</t>
-  </si>
-  <si>
-    <t>achieve2</t>
-  </si>
-  <si>
-    <t>achieve3</t>
-  </si>
-  <si>
-    <t>achieve4</t>
-  </si>
-  <si>
-    <t>achieve5</t>
-  </si>
-  <si>
-    <t>achieve6</t>
-  </si>
-  <si>
-    <t>achieve7</t>
-  </si>
-  <si>
-    <t>achieve8</t>
-  </si>
-  <si>
-    <t>achieve9</t>
-  </si>
-  <si>
-    <t>achieve10</t>
-  </si>
-  <si>
-    <t>btnBack</t>
-  </si>
-  <si>
-    <t>arrowCase</t>
-  </si>
-  <si>
-    <t>btnForward</t>
-  </si>
-  <si>
-    <t>btnClose</t>
-  </si>
-  <si>
-    <t>closeCase</t>
-  </si>
-  <si>
-    <t>fire1</t>
-  </si>
-  <si>
-    <t>fire2</t>
-  </si>
-  <si>
-    <t>fire3</t>
-  </si>
-  <si>
-    <t>fire4</t>
-  </si>
-  <si>
-    <t>fire5</t>
-  </si>
-  <si>
-    <t>fire1Case</t>
-  </si>
-  <si>
-    <t>fire2Case</t>
-  </si>
-  <si>
-    <t>fire3Case</t>
-  </si>
-  <si>
-    <t>fire4Case</t>
-  </si>
-  <si>
-    <t>fire5Case</t>
-  </si>
-  <si>
-    <t>fire6Case</t>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credits_mc</t>
-  </si>
-  <si>
-    <t>Credits.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logoCont</t>
-  </si>
-  <si>
-    <t>noteCont</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>btnOk</t>
-  </si>
-  <si>
-    <t>okCase</t>
-  </si>
-  <si>
-    <t>logoContCase</t>
-  </si>
-  <si>
-    <t>noteContCase</t>
-  </si>
-  <si>
-    <t>facebookCase</t>
-  </si>
-  <si>
-    <t>twitterCase</t>
-  </si>
-  <si>
-    <t>StartMenu_mc</t>
-  </si>
-  <si>
-    <t>StartMenu.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credits</t>
-  </si>
-  <si>
-    <t>game1</t>
-  </si>
-  <si>
-    <t>game2</t>
-  </si>
-  <si>
-    <t>game3</t>
-  </si>
-  <si>
-    <t>glitter</t>
-  </si>
-  <si>
-    <t>logOut</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>saveType</t>
-  </si>
-  <si>
-    <t>btnIdnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idnetCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localSave</t>
-  </si>
-  <si>
-    <t>onlineSave</t>
-  </si>
-  <si>
-    <t>localSaveCase</t>
-  </si>
-  <si>
-    <t>onlineSaveCase</t>
-  </si>
-  <si>
-    <t>newGame1Case</t>
-  </si>
-  <si>
-    <t>game1Case</t>
-  </si>
-  <si>
-    <t>syncSlot</t>
-  </si>
-  <si>
-    <t>syncSlotCase</t>
-  </si>
-  <si>
-    <t>deleteSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteSlotCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newGame2Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game2Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numTXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newGame3Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game3Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startCase</t>
-  </si>
-  <si>
-    <t>Upgrades_mc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrades.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btnReset</t>
-  </si>
-  <si>
-    <t>btnAccept</t>
-  </si>
-  <si>
-    <t>golemArrow1</t>
-  </si>
-  <si>
-    <t>golemArrow2</t>
-  </si>
-  <si>
-    <t>golemArrow3</t>
-  </si>
-  <si>
-    <t>golemArrow4</t>
-  </si>
-  <si>
-    <t>icemanArrow1</t>
-  </si>
-  <si>
-    <t>icemanArrow2</t>
-  </si>
-  <si>
-    <t>icemanArrow3</t>
-  </si>
-  <si>
-    <t>icemanArrow4</t>
-  </si>
-  <si>
-    <t>airArrow1</t>
-  </si>
-  <si>
-    <t>airArrow2</t>
-  </si>
-  <si>
-    <t>airArrow3</t>
-  </si>
-  <si>
-    <t>airArrow4</t>
-  </si>
-  <si>
-    <t>fireArrow1</t>
-  </si>
-  <si>
-    <t>fireArrow2</t>
-  </si>
-  <si>
-    <t>fireArrow3</t>
-  </si>
-  <si>
-    <t>fireArrow4</t>
-  </si>
-  <si>
-    <t>iceArrow1</t>
-  </si>
-  <si>
-    <t>iceArrow2</t>
-  </si>
-  <si>
-    <t>iceArrow3</t>
-  </si>
-  <si>
-    <t>iceArrow4</t>
-  </si>
-  <si>
-    <t>stoneArrow1</t>
-  </si>
-  <si>
-    <t>stoneArrow2</t>
-  </si>
-  <si>
-    <t>stoneArrow3</t>
-  </si>
-  <si>
-    <t>stoneArrow4</t>
-  </si>
-  <si>
-    <t>levinArrow1</t>
-  </si>
-  <si>
-    <t>levinArrow2</t>
-  </si>
-  <si>
-    <t>levinArrow3</t>
-  </si>
-  <si>
-    <t>levinArrow4</t>
-  </si>
-  <si>
-    <t>resetCase</t>
-  </si>
-  <si>
-    <t>acceptCase</t>
-  </si>
-  <si>
-    <t>HintUpgrade_mc</t>
-  </si>
-  <si>
-    <t>golemUpgrade1</t>
-  </si>
-  <si>
-    <t>starsTXT</t>
-  </si>
-  <si>
-    <t>golemUpgrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgradeCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>golemUpgrade5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>golemUpgrade4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>golemUpgrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icemanUpgrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icemanUpgrade1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icemanUpgrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icemanUpgrade4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icemanUpgrade5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airUpgrade1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airUpgrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airUpgrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airUpgrade4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airUpgrade5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireUpgrade1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireUpgrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starsTXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireUpgrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireUpgrade4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireUpgrade5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceUpgrade5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceUpgrade4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceUpgrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceUpgrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceUpgrade1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneUpgrade1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneUpgrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneUpgrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneUpgrade4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneUpgrade5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levinUpgrade4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levinUpgrade5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levinUpgrade3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levinUpgrade2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levinUpgrade1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2490,6 +2492,23 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2507,23 +2526,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4229,7 +4231,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="26" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4257,7 +4259,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="20"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -4283,7 +4285,7 @@
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="20"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -4306,7 +4308,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -4332,7 +4334,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -4358,7 +4360,7 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -4381,7 +4383,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -4407,7 +4409,7 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -4433,7 +4435,7 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -4777,7 +4779,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="29" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4805,7 +4807,7 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="23"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -4831,7 +4833,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="23"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -4857,7 +4859,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="23"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -4883,7 +4885,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -4907,7 +4909,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="29" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4935,7 +4937,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="23"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -4961,7 +4963,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="23"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -4987,7 +4989,7 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -5013,7 +5015,7 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9098,8 +9100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3E73D0-D4B9-457D-8D8A-52FD778FEEDA}">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11805,7 +11807,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>332</v>
@@ -11888,7 +11890,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>332</v>
@@ -11971,7 +11973,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>332</v>
@@ -13418,7 +13420,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="3" t="s">
-        <v>524</v>
+        <v>679</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>332</v>
@@ -13440,7 +13442,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="3" t="s">
-        <v>525</v>
+        <v>678</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>332</v>
@@ -13462,7 +13464,7 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>332</v>
@@ -13484,7 +13486,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>332</v>
@@ -13506,7 +13508,7 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>332</v>
@@ -13525,7 +13527,7 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>332</v>
@@ -13585,6 +13587,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13592,7 +13595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A16EEB-F50D-42B7-922A-BBDE591E0849}">
   <dimension ref="A1:K389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+    <sheetView topLeftCell="A384" workbookViewId="0">
       <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
@@ -15909,10 +15912,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>391</v>
@@ -15950,7 +15953,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>391</v>
@@ -16003,7 +16006,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>391</v>
@@ -16020,7 +16023,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>391</v>
@@ -16054,7 +16057,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>391</v>
@@ -16070,10 +16073,10 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>391</v>
@@ -16156,7 +16159,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -16171,13 +16174,13 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -16222,7 +16225,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -16237,13 +16240,13 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -16288,7 +16291,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -16303,13 +16306,13 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -16354,7 +16357,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -16369,13 +16372,13 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -16420,7 +16423,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -16435,13 +16438,13 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -16486,7 +16489,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -16501,13 +16504,13 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -16552,7 +16555,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -16567,13 +16570,13 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -16618,7 +16621,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -16633,13 +16636,13 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -16684,7 +16687,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -16699,13 +16702,13 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -16750,7 +16753,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -16765,13 +16768,13 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -16816,7 +16819,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -16831,7 +16834,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -16846,7 +16849,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -16861,7 +16864,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -16876,7 +16879,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -16891,7 +16894,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -16906,7 +16909,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -16921,7 +16924,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -16936,7 +16939,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -16951,7 +16954,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -16966,7 +16969,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -16981,7 +16984,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -16996,7 +16999,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -17011,7 +17014,7 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -17026,7 +17029,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -17041,7 +17044,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -17056,7 +17059,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -17068,209 +17071,209 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="28" t="s">
+    <row r="181" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="22"/>
+      <c r="J181" s="22"/>
+      <c r="K181" s="22"/>
+    </row>
+    <row r="182" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="22"/>
+      <c r="B182" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
+      <c r="J182" s="22"/>
+      <c r="K182" s="22"/>
+    </row>
+    <row r="183" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="22"/>
+      <c r="B183" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="22"/>
+      <c r="J183" s="22"/>
+      <c r="K183" s="22"/>
+    </row>
+    <row r="184" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="22"/>
+      <c r="B184" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="22"/>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+    </row>
+    <row r="185" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="22"/>
+      <c r="B185" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="22"/>
+      <c r="J185" s="22"/>
+      <c r="K185" s="22"/>
+    </row>
+    <row r="186" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="22"/>
+      <c r="B186" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="B181" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="28"/>
-    </row>
-    <row r="182" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="28"/>
-      <c r="B182" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
-      <c r="K182" s="28"/>
-    </row>
-    <row r="183" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="28"/>
-      <c r="B183" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="28"/>
-      <c r="K183" s="28"/>
-    </row>
-    <row r="184" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="28"/>
-      <c r="B184" s="30" t="s">
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="22"/>
+      <c r="J186" s="22"/>
+      <c r="K186" s="22"/>
+    </row>
+    <row r="187" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="22"/>
+      <c r="B187" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="22"/>
+      <c r="J187" s="22"/>
+      <c r="K187" s="22"/>
+    </row>
+    <row r="188" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="22"/>
+      <c r="B188" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
-      <c r="K184" s="28"/>
-    </row>
-    <row r="185" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="28"/>
-      <c r="B185" s="31" t="s">
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="22"/>
+      <c r="J188" s="22"/>
+      <c r="K188" s="22"/>
+    </row>
+    <row r="189" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="22"/>
+      <c r="B189" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28"/>
-      <c r="J185" s="28"/>
-      <c r="K185" s="28"/>
-    </row>
-    <row r="186" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="28"/>
-      <c r="B186" s="30" t="s">
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="22"/>
+      <c r="J189" s="22"/>
+      <c r="K189" s="22"/>
+    </row>
+    <row r="190" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="22"/>
+      <c r="B190" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
-      <c r="H186" s="28"/>
-      <c r="I186" s="28"/>
-      <c r="J186" s="28"/>
-      <c r="K186" s="28"/>
-    </row>
-    <row r="187" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="28"/>
-      <c r="B187" s="31" t="s">
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="22"/>
+      <c r="J190" s="22"/>
+      <c r="K190" s="22"/>
+    </row>
+    <row r="191" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="22"/>
+      <c r="B191" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="28"/>
-      <c r="I187" s="28"/>
-      <c r="J187" s="28"/>
-      <c r="K187" s="28"/>
-    </row>
-    <row r="188" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="28"/>
-      <c r="B188" s="30" t="s">
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="22"/>
+      <c r="J191" s="22"/>
+      <c r="K191" s="22"/>
+    </row>
+    <row r="192" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="22"/>
+      <c r="B192" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28"/>
-      <c r="J188" s="28"/>
-      <c r="K188" s="28"/>
-    </row>
-    <row r="189" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="28"/>
-      <c r="B189" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="28"/>
-      <c r="H189" s="28"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="28"/>
-    </row>
-    <row r="190" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="28"/>
-      <c r="B190" s="30" t="s">
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="22"/>
+      <c r="J192" s="22"/>
+      <c r="K192" s="22"/>
+    </row>
+    <row r="193" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="22"/>
+      <c r="B193" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="28"/>
-    </row>
-    <row r="191" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="28"/>
-      <c r="B191" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
-    </row>
-    <row r="192" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="28"/>
-      <c r="B192" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="28"/>
-      <c r="I192" s="28"/>
-      <c r="J192" s="28"/>
-      <c r="K192" s="28"/>
-    </row>
-    <row r="193" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="28"/>
-      <c r="B193" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
-      <c r="K193" s="28"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="22"/>
+      <c r="J193" s="22"/>
+      <c r="K193" s="22"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -17285,7 +17288,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -17300,7 +17303,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -17315,7 +17318,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -17330,7 +17333,7 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -17435,7 +17438,7 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -17450,7 +17453,7 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -17465,7 +17468,7 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -17480,7 +17483,7 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -17495,7 +17498,7 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -17510,7 +17513,7 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -17525,7 +17528,7 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -17540,7 +17543,7 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -17555,7 +17558,7 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -17572,7 +17575,7 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -17587,7 +17590,7 @@
     <row r="215" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -17602,7 +17605,7 @@
     <row r="216" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -17617,7 +17620,7 @@
     <row r="217" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -17632,7 +17635,7 @@
     <row r="218" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -17647,7 +17650,7 @@
     <row r="219" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -17662,7 +17665,7 @@
     <row r="220" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -17677,7 +17680,7 @@
     <row r="221" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -17694,7 +17697,7 @@
     <row r="222" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -17709,7 +17712,7 @@
     <row r="223" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -17724,7 +17727,7 @@
     <row r="224" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -17739,7 +17742,7 @@
     <row r="225" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -17754,7 +17757,7 @@
     <row r="226" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -17769,7 +17772,7 @@
     <row r="227" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -17784,7 +17787,7 @@
     <row r="228" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -17799,7 +17802,7 @@
     <row r="229" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -17816,7 +17819,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -17831,7 +17834,7 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -17846,7 +17849,7 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -17953,7 +17956,7 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -17968,7 +17971,7 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -17983,7 +17986,7 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -17998,7 +18001,7 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -18013,7 +18016,7 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -18043,7 +18046,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -18057,817 +18060,817 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>606</v>
+      </c>
+      <c r="B246" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="19" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="21" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="B246" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B247" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B248" s="26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B249" s="25" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B250" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B251" s="26" t="s">
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="21" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="20" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B252" s="27" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B253" s="26" t="s">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="20" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B254" s="27" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="20" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B273" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B274" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B275" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="20" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277" s="20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B278" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B279" s="20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B280" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B281" s="20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B282" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B283" s="20" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="26" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="26" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="26" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="26" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="26" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="26" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="26" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="26" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="26" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="26" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="26" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="26" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="26" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="26" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="26" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="26" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="26" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="26" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B273" s="26" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B274" s="26" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B275" s="26" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="26" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B277" s="26" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B278" s="26" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B279" s="26" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B280" s="26" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B281" s="26" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B282" s="26" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B283" s="26" t="s">
-        <v>642</v>
-      </c>
-    </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B284" s="27" t="s">
-        <v>645</v>
+      <c r="B284" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B285" s="27" t="s">
-        <v>643</v>
+      <c r="B285" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B286" s="26" t="s">
-        <v>644</v>
+      <c r="B286" s="20" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B287" s="27" t="s">
-        <v>645</v>
+      <c r="B287" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B288" s="27" t="s">
-        <v>643</v>
+      <c r="B288" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B289" s="26" t="s">
-        <v>648</v>
+      <c r="B289" s="20" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B290" s="27" t="s">
-        <v>645</v>
+      <c r="B290" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="27" t="s">
-        <v>643</v>
+      <c r="B291" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B292" s="26" t="s">
-        <v>647</v>
+      <c r="B292" s="20" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B293" s="27" t="s">
-        <v>645</v>
+      <c r="B293" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B294" s="27" t="s">
-        <v>643</v>
+      <c r="B294" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B295" s="26" t="s">
-        <v>646</v>
+      <c r="B295" s="20" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B296" s="27" t="s">
-        <v>645</v>
+      <c r="B296" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B297" s="27" t="s">
-        <v>643</v>
+      <c r="B297" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B298" s="26" t="s">
-        <v>650</v>
+      <c r="B298" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B299" s="27" t="s">
-        <v>645</v>
+      <c r="B299" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B300" s="27" t="s">
-        <v>643</v>
+      <c r="B300" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B301" s="26" t="s">
-        <v>649</v>
+      <c r="B301" s="20" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="27" t="s">
-        <v>645</v>
+      <c r="B302" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B303" s="27" t="s">
-        <v>643</v>
+      <c r="B303" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B304" s="26" t="s">
-        <v>651</v>
+      <c r="B304" s="20" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B305" s="27" t="s">
-        <v>645</v>
+      <c r="B305" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B306" s="27" t="s">
-        <v>643</v>
+      <c r="B306" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B307" s="26" t="s">
-        <v>652</v>
+      <c r="B307" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B308" s="27" t="s">
-        <v>645</v>
+      <c r="B308" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B309" s="27" t="s">
-        <v>643</v>
+      <c r="B309" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B310" s="26" t="s">
-        <v>653</v>
+      <c r="B310" s="20" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B311" s="27" t="s">
-        <v>645</v>
+      <c r="B311" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B312" s="27" t="s">
-        <v>643</v>
+      <c r="B312" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B313" s="26" t="s">
-        <v>654</v>
+      <c r="B313" s="20" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B314" s="27" t="s">
-        <v>645</v>
+      <c r="B314" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B315" s="27" t="s">
-        <v>643</v>
+      <c r="B315" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316" s="26" t="s">
-        <v>655</v>
+      <c r="B316" s="20" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B317" s="27" t="s">
-        <v>645</v>
+      <c r="B317" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B318" s="27" t="s">
-        <v>643</v>
+      <c r="B318" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B319" s="26" t="s">
-        <v>656</v>
+      <c r="B319" s="20" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B320" s="27" t="s">
-        <v>645</v>
+      <c r="B320" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B321" s="27" t="s">
-        <v>643</v>
+      <c r="B321" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B322" s="26" t="s">
-        <v>657</v>
+      <c r="B322" s="20" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B323" s="27" t="s">
-        <v>645</v>
+      <c r="B323" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B324" s="27" t="s">
-        <v>643</v>
+      <c r="B324" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B325" s="26" t="s">
-        <v>658</v>
+      <c r="B325" s="20" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B326" s="27" t="s">
-        <v>645</v>
+      <c r="B326" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B327" s="27" t="s">
-        <v>643</v>
+      <c r="B327" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B328" s="26" t="s">
-        <v>659</v>
+      <c r="B328" s="20" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B329" s="27" t="s">
-        <v>645</v>
+      <c r="B329" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B330" s="27" t="s">
-        <v>643</v>
+      <c r="B330" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B331" s="26" t="s">
-        <v>660</v>
+      <c r="B331" s="20" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B332" s="27" t="s">
-        <v>645</v>
+      <c r="B332" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B333" s="27" t="s">
-        <v>661</v>
+      <c r="B333" s="21" t="s">
+        <v>659</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334" s="26" t="s">
-        <v>662</v>
+      <c r="B334" s="20" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B335" s="27" t="s">
-        <v>645</v>
+      <c r="B335" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B336" s="27" t="s">
-        <v>643</v>
+      <c r="B336" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B337" s="26" t="s">
-        <v>663</v>
+      <c r="B337" s="20" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B338" s="27" t="s">
-        <v>645</v>
+      <c r="B338" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B339" s="27" t="s">
-        <v>643</v>
+      <c r="B339" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B340" s="26" t="s">
-        <v>664</v>
+      <c r="B340" s="20" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B341" s="27" t="s">
-        <v>645</v>
+      <c r="B341" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B342" s="27" t="s">
-        <v>643</v>
+      <c r="B342" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B343" s="26" t="s">
-        <v>669</v>
+      <c r="B343" s="20" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B344" s="27" t="s">
-        <v>645</v>
+      <c r="B344" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B345" s="27" t="s">
-        <v>643</v>
+      <c r="B345" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B346" s="26" t="s">
-        <v>668</v>
+      <c r="B346" s="20" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B347" s="27" t="s">
-        <v>645</v>
+      <c r="B347" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B348" s="27" t="s">
-        <v>661</v>
+      <c r="B348" s="21" t="s">
+        <v>659</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B349" s="26" t="s">
-        <v>667</v>
+      <c r="B349" s="20" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B350" s="27" t="s">
-        <v>645</v>
+      <c r="B350" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B351" s="27" t="s">
-        <v>643</v>
+      <c r="B351" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B352" s="26" t="s">
-        <v>666</v>
+      <c r="B352" s="20" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B353" s="27" t="s">
-        <v>645</v>
+      <c r="B353" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B354" s="27" t="s">
-        <v>643</v>
+      <c r="B354" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B355" s="26" t="s">
-        <v>665</v>
+      <c r="B355" s="20" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B356" s="27" t="s">
-        <v>645</v>
+      <c r="B356" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B357" s="27" t="s">
-        <v>643</v>
+      <c r="B357" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B358" s="26" t="s">
-        <v>670</v>
+      <c r="B358" s="20" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B359" s="27" t="s">
-        <v>645</v>
+      <c r="B359" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B360" s="27" t="s">
-        <v>643</v>
+      <c r="B360" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B361" s="26" t="s">
-        <v>671</v>
+      <c r="B361" s="20" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B362" s="27" t="s">
-        <v>645</v>
+      <c r="B362" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B363" s="27" t="s">
-        <v>661</v>
+      <c r="B363" s="21" t="s">
+        <v>659</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B364" s="26" t="s">
-        <v>672</v>
+      <c r="B364" s="20" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B365" s="27" t="s">
-        <v>645</v>
+      <c r="B365" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B366" s="27" t="s">
-        <v>643</v>
+      <c r="B366" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B367" s="26" t="s">
-        <v>673</v>
+      <c r="B367" s="20" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B368" s="27" t="s">
-        <v>645</v>
+      <c r="B368" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B369" s="27" t="s">
-        <v>643</v>
+      <c r="B369" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B370" s="26" t="s">
-        <v>674</v>
+      <c r="B370" s="20" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B371" s="27" t="s">
-        <v>645</v>
+      <c r="B371" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B372" s="27" t="s">
-        <v>643</v>
+      <c r="B372" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B373" s="26" t="s">
-        <v>679</v>
+      <c r="B373" s="20" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B374" s="27" t="s">
-        <v>645</v>
+      <c r="B374" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B375" s="27" t="s">
-        <v>643</v>
+      <c r="B375" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B376" s="26" t="s">
-        <v>678</v>
+      <c r="B376" s="20" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B377" s="27" t="s">
-        <v>645</v>
+      <c r="B377" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B378" s="27" t="s">
-        <v>661</v>
+      <c r="B378" s="21" t="s">
+        <v>659</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B379" s="26" t="s">
-        <v>677</v>
+      <c r="B379" s="20" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B380" s="27" t="s">
-        <v>645</v>
+      <c r="B380" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B381" s="27" t="s">
-        <v>643</v>
+      <c r="B381" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B382" s="26" t="s">
-        <v>675</v>
+      <c r="B382" s="20" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B383" s="27" t="s">
-        <v>645</v>
+      <c r="B383" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B384" s="27" t="s">
-        <v>643</v>
+      <c r="B384" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B385" s="26" t="s">
-        <v>676</v>
+      <c r="B385" s="20" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B386" s="27" t="s">
-        <v>645</v>
+      <c r="B386" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B387" s="27" t="s">
-        <v>643</v>
+      <c r="B387" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>137</v>
@@ -18875,11 +18878,11 @@
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B388" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B389" s="25" t="s">
+      <c r="B389" s="19" t="s">
         <v>216</v>
       </c>
     </row>
